--- a/data/hotels_by_city/Dallas/Dallas_shard_145.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_145.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>PJT99</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>Not yet had the latest courtyard makeover, but pleasant enough place to stay.Smelled like someone had been smoking in my room, but smell cleared once I left the window open for a whilePleasant and helpful staffA few restaurants in walking distance and many within a short driveOutdoor pool and small gymMore</t>
+  </si>
+  <si>
+    <t>Deniz O</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r525470175-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -221,6 +227,9 @@
 The Bistro downstairs was very nice and the food was great. Just be aware of the times it's open and closed, because it's a limited window for breakfast, lunch, and dinner, including coffee service (Starbucks). The cashiers at the Bistro, too, were very friendly and super...My stay here was very pleasant. I was already expecting certain standards but the employees of this hotel exceed all expectations. I was greeted by Victor upon my arrival around 11 pm. He was very kind and welcoming despite the late hour. He checked me in and told me I could let him know right away if I needed anything. The room was very nicely decorated and felt cozy. Everything, including the bathroom, was super clean. The shower and the sink were shiny and new. I had a small issue during my stay which Valerie helped me with. She was very gentle and sweet, and took care of me in a way that was very important to me. Pam, the manager, also was very attentive to this issue, and helped me immensely. Apart from that, whenever I sat at the Bistro, I saw Pam walking around and making sure every guest was happy and taken care of. She is a great example of how a good manager should be like. I stayed for 5 nights and every time I entered through the sliding doors I was greeted genuinely and cheerfully. What a good feeling!The Bistro downstairs was very nice and the food was great. Just be aware of the times it's open and closed, because it's a limited window for breakfast, lunch, and dinner, including coffee service (Starbucks). The cashiers at the Bistro, too, were very friendly and super hospitable. My only complaint would be that there are no screen doors for balconies in regular rooms. They should definitely put those there with all the bugs flying around in the heat of Texas. I'm not a fan of AC and I'd like to air my room by leaving the balcony door open, however I was not able to do that due to the absence of screen doors, which left my room super stuffy. All in all, my experience was a very pleasant one. There is one person I have to mention separately, who has a big heart and who will go to great lengths to help you out with anything you need. And that is Beryl. She is a sweetheart and the star of my stay. From the moment I met her at the reception to the end when she gave me a big goodbye hug, along with a bag Haribos for my long flight to Turkey, she was the epitome of warm, genuine hospitality. People like her make stays at these hotels memorable and make you want to come back. God bless her. More</t>
   </si>
   <si>
+    <t>Robert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r519702691-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
     <t>But not this one.  This was not one of the best Courtyards I have ever stayed at and I have stayed at many. The staff were friendly  and it was not dirty, it just lacked the quality feel of most Courtyards.More</t>
   </si>
   <si>
+    <t>Tony9876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r482799474-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -278,6 +290,9 @@
     <t>I keep staying at Courtyards while also continuing to hope at some point Marriott recognizes the Bistro concept is not working as designed. Why do I choose Courtyard?  As a Marriott Platinum Elite customer, I almost exclusively stay at a Marriott hotel, about 100 nights a year. I dislike that Courtyard is the only Marriott brand where I get no breakfast accommodation. I stay at Courtyards because I get a good price, especially for weekend stays and almost always get a clean, well maintained room. No exception to that here, as the Fossil Creek location was a good stay, with a comfortable bed and decent sized room.More</t>
   </si>
   <si>
+    <t>Andrew W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r474973203-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -293,6 +308,9 @@
     <t>Nice clean hotel - very friendly staff, upgrade interior, nice breakfast area and tasty!   Very quiet room, comfortable, larger room than normal.   A few restaurants in the area also, close to highway...recommended !!</t>
   </si>
   <si>
+    <t>Dave M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r406847966-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -311,6 +329,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Shalanda30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r399509859-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -341,6 +362,9 @@
     <t>The hotel is in an excellent location. There's a Luby's and Jack in the Box next door.  They offer free WiFi, so this was a plus. There is no complimentary breakfast, but they do have a menu that you can order from.  You can include breakfast in your room fee.  We were given a cost of $80, a special rate for a family and friends gathering. The hotel wasn't worth the 80.00.  The staff was awesome and helpful. The rooms are small. The bed faces the window and the television is to the left of the bed, so you have to position yourself to view it.  The room didn't smell fresh and the bathroom floor was not clean.  Overall, it was an average hotel.More</t>
   </si>
   <si>
+    <t>PapmientoToday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r395155085-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -356,6 +380,9 @@
     <t>I'm so thankful for the staff at this hotel for taking such good care of me over the past six months. The property is perfectly acceptable but it's the employees that make it great. Thanks is especially owed to, in no particular order: Beryl, Judy, Sonyette, Victoria, and Matt! Thanks gang!!!</t>
   </si>
   <si>
+    <t>travelingtx85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r391077785-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -371,6 +398,9 @@
     <t xml:space="preserve">Over the past week we stayed in 4 different Marriotts. This one, although not the most up to date, had the most space. Separate sitting room from the bathroom with doors to close off the rooms. Staff was friendly. Cold A/C. I would stay here again when in the area. </t>
   </si>
   <si>
+    <t>Jolita88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r390886819-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -395,6 +425,9 @@
     <t>Upon arrival my card wouldn't work, not sure why, but my husband's from the same bank did work. I was surprised when the clerk told me the card would be charged $28 more than what I made the reservation for, and embarrassed when I felt she was insinuating we couldn't afford the stay when my card wouldn't go through. When unloading our card, the door key was "eaten" when put in the box on the door.1st trip to desk for help. We went out to sight-see a bit. Upon returning to our room we realized there was not remote for the television. 2nd call to the office. We're in a king room with a sofa bed. But, no bedding get for it in the room. Small problems, but still inconveniences to us. Our room is nice and the bed is clean and well appointed, albeit a little crowded.More</t>
   </si>
   <si>
+    <t>WorldwidetravelerUsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r359145748-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -416,6 +449,9 @@
     <t>We stayed in this hotel for 2 nights.  Our room was very clean as were the hallways and the lobby.  The staff was pleasant and helpful.  There is a nicely landscaped courtyard with a clean pool area.  Unfortunately, there is a lot of highway construction in the immediate area which which the hotel can't control.  Be prepared to spend extra time accessing and exiting from I-820 and I-35W if you stay here. In the lobby there is a nice selection of free newspapers but there is no free coffee.  The food and drink items in the hotel's dining area are all sold a la carte unless you book a rate which includes breakfast or meals.More</t>
   </si>
   <si>
+    <t>Sehler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r358887603-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -434,6 +470,9 @@
     <t>We recently stayed 4 nights at this hotel. Overall, we enjoyed the stay. The interstate is very close and is fairly noisy in the evenings -- not loud enough to wake you but can be annoying when trying to get to sleep. The property is clean and well-maintained and the front desk staff were friendly. The bed was very comfortable and the free internet worked well. On our last evening, the alarm went off about 4:30 in the morning. All guests were heading to the lobby when the first group came back up and said there was a water leak which triggered the alarm. Everyone went back to their rooms but THE ALARM WASN'T SHUT OFF!!! It is extremely loud and blared for approximately 20 minutes!!!  Not sure what took so long to turn it off, but it was definitely annoying. All in all though, we were pleased with the hotel and will stay here again when in the area. More</t>
   </si>
   <si>
+    <t>Brian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r357312781-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -458,6 +497,9 @@
     <t>The building is an older building that has been updated in the main areas. More work needs to be done to bring this to Marriott standards. The room was musty (I presume from being an older building). The dresser/television was located to the right of the bed instead of in front. The room had a balcony, which was a plus. The staff was friendly and prompt. We did breakfast elsewhere due to the limited choices and pricing at the hotel bistro. Overall, the bed was comfortable and the hotel is in a nice neighborhood. I expected a little more from the Marriott name though.More</t>
   </si>
   <si>
+    <t>hacker0124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r354358186-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -476,6 +518,9 @@
     <t>As I have returned to business travel, I have been forced to deviate form my typical Starwood lodging preference (I know Marriott purchased Starwood, but not relevant until mid-2016) So this choice is the best possible given the circumstances. All of that being said, the Courtyard at Fossil Creek is a very nice business hotel. Large clean rooms, free WiFi (important), a place that serves food and beverages and cocktails.The rooms are exceptionally clean, and very large. The only issue I saw was our location close to the 820 freeway resulted in a certain amount of traffic noise. That being said, the bed was comfortable and the road noise in no way effected my sleep.I had one issue with the bedroom television, which was corrected immediately. The front desk staff was helpful and cordial, the mixoligist maybe a bit over the top, but beverages were as ordered.All in all, good stay. I was at this property for four nights. I would stay at this property again, and has opened ,me up to possibly other Courtyard properties in the future!More</t>
   </si>
   <si>
+    <t>jamieandwill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r354206496-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -494,6 +539,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Bee-stone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r321742120-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -512,6 +560,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Kathy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r308140409-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -542,6 +593,9 @@
     <t>This is a lovely Courtyard, but hard to get to and get around due to the intense highway construction still going on in Fort Worth.  The hotel staff did a great job in offering suggestions to avoid the worst of the traffic tie-ups, but it will take longer than you'd expect to get around the DFW area from this neighborhood.More</t>
   </si>
   <si>
+    <t>HenHoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r306038923-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -569,6 +623,9 @@
     <t>I've stayed here twice in the past month. It's a decent hotel and the staff is very good. I've stayed at some other hotels in the area and it's a good choice. The gym is small but if you are up by 6, there is usually nobody there.  Be aware that it is very close (less than 100 yards) from I-820 and the odd numbered rooms at the front are quite loud. If you can be in one of the back wings or an even number, you should be OK.More</t>
   </si>
   <si>
+    <t>Eric S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r305927706-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -608,6 +665,9 @@
     <t>Hotel is a bit of driving from DFW airport but the facility is brand spanking new.  You can actually smell the new paint and wallpaper throughout.  Front desk service is excellent as I arrived after midnight and realized booked into a different hotel some distance away but the staff swiftly cancelled my booking and get me into a room within 15 minutes.  Outstanding service!!Good sized room and lighting (unlike other ones that makes you go for treasure hunt in the semi-dark space).  Towels are fresh and fluffy.  Excellent choice in the Fort Worth area and will definitely return in the future.More</t>
   </si>
   <si>
+    <t>Virginia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r294840674-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -635,6 +695,9 @@
     <t>My husband and I arrived about 9pm for a one night stay, flying out the next morning for a funeral in Phoenix. Needless to say we were tired. When we turned down the bed what a surprise to find the beds (all we could get when we booked were two double beds) dirty. There were hair in both beds and the sheets were very obviously slept in. After notifying management we were immediately given another room, but we had to repack and move our own things. I had also booked this hotel on our return for 3 nights, as our daughter lives in Ft Worth and a chance to visit with her. I immediately cancelled those reservations and booked the Hampton Inn down the road. Upon check out, management removed $30. off our bill. We did not ask for a discount but it was a nice gesture. Manager said she would make sure staff was retrained. The very least a guest should expect is a clean bed with clean linens!More</t>
   </si>
   <si>
+    <t>LeanCEO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r292188923-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -659,6 +722,9 @@
     <t>Our business group stayed here based on TripAdvisor rating, but we won't again.  My first room (305) faced the freeway and was very noisy.  Traffic, jake brakes, and so forth all day and night.  The a/c unit was incredibly noisy and cycled every 5 or 6 minutes, preventing sleep the first night. I changed to a pool facing room the second night which helped a lot, but still noise from the a/c unit.  If you're a light sleeper, this place is not for you.  Another in our party had a broken coffee maker, another found hairs in the shower, another had a soggy carpet.  More</t>
   </si>
   <si>
+    <t>Cindy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r291555412-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -677,6 +743,9 @@
     <t>This is a very nice, very clean hotel. I stayed 2 consecutive weekends and both times my room and bathroom was spotless.  No funny odors like many hotels have, either. I love their beds!!!  So comfy.  The rooms I stayed in were very quiet (regarding outside noise).  We swam in the pool...nice...they provide pool noodles! :-)  The gym is pretty good, too.  The only thing I don't like...no breakfast included.  You have to pay for meals at their little bistro, which is not open all the time. Overall, it is a great, inexpensive place to stay.  We will stay here every time we come to town!  Oh, and pay for Wifi if you need a really fast connection, especially for business. Otherwise, Wifi is free.More</t>
   </si>
   <si>
+    <t>RickPerrotta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r288687235-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -695,6 +764,9 @@
     <t>Solid Courtyard Marriott experience. Staff is welcoming and provides great service. Family friendly and business traveler efficient. Good suites for extra space, good pool and patio to relax, bistro serves good food.More</t>
   </si>
   <si>
+    <t>kathleenjm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r276617654-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -711,6 +783,9 @@
   </si>
   <si>
     <t>We are staying here for my daughter's wedding this Friday.  My husband is a platinum member and we are using points to book 3 rooms to accommodate family. Plans kept changing and I had a hodgepodge of reservations with rooms that needed to be King instead of doubles, etc.  Frank put all of the random pieces together into one nice reservation where we could all be on the same floor and not checking in and out and changing rooms every day! I kept questioning him about how he was able to pull this all together, when I had called to try and make this change and they were unable to do it.  I learned that he was not even supposed to be at the front desk at all, but had noticed it was unmanned for a minute and took the responsibility to cover. He is a gem!!!!  Can't say enough good things about him and his attitude and ability to get things done! So grateful!!!!!More</t>
+  </si>
+  <si>
+    <t>KatieG958</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r275736964-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -747,6 +822,9 @@
 The rooms were nicely sized. Our wheelchair was able to maneuver fairly well with minimal furniture movement. Practically the entire hotel is carpeted, so keep that in mind if you are pushing a wheelchair. However, it...While the hotel was rather difficult to locate (due to construction, detours, and small amount of signage, GPS had us looping around for a short while, etc.), once located it was easy to get in-and-out of. It was right off the freeway, so getting out of town was made much easier.In reviewing other hotel reviews (including the Fairfield next door), some have mentioned the area being “higher” crime (thefts and burglary). We did not have any issues – granted we always made certain to park in front of the hotel with plenty of lighting nearby, but I felt secure the entire time.The hotel is an older facility, but our room was clean and the public areas smelled nice and sanitized. Even the stairwell was clean and fresh smelling.The staff from the front desk to housekeeping to the bistro was very friendly and willing to help. They always had a smile on their faces.Due to severe weather at our ultimate destination point, we chose to stay an extra night in Fort Worth right at noon, which is busy due to check-out. Dean at the front desk was very agreeable and helped re-secure our room for us in a matter of minutes.The rooms were nicely sized. Our wheelchair was able to maneuver fairly well with minimal furniture movement. Practically the entire hotel is carpeted, so keep that in mind if you are pushing a wheelchair. However, it is a relatively low pile, so it is was easy to move about.Overall, good experience and would return in the future.More</t>
   </si>
   <si>
+    <t>Jarrod K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r273108870-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -774,6 +852,9 @@
     <t>April 30, 2015</t>
   </si>
   <si>
+    <t>baileespoppa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r267606715-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -801,6 +882,9 @@
     <t>We decided to take the grandkids with us this year to attend the NCAA Women's Gymnastic Championships.  They have going to meets at UGA for years and to a few post season meets, but we have not been able to take all four teenagers by plane before.  We chose Courtyard for their suites able to accommodate six people.  We loved our room.  It was large enough to allow for privacy:  two queen beds, fold out couch/bed, one and a half baths and a kitchenette with fridge and microwave.  All four teens were able to charge their phones at the same time and Poppa was able to hook up the laptop as well.  The Grands went to the fitness center several times and did laundry twice.  They only went to the pool once: stayed until their lips turned blue. We ate in the Bistro a couple of times and enjoyed it. Hotel is clean and near the Expressways (Loop 820 &amp; I-35).  Had a little difficulty due to construction on Loop 820.  There is some noise from freeway traffic but we had no trouble sleeping.  My only complaint was that online booking indicated we could get a roll-away bed. At check-in we were told they did not have roll-aways.More</t>
   </si>
   <si>
+    <t>wvappaloosa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r267596390-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -816,6 +900,9 @@
     <t>I stayed here for business and found the staff super helpful. Very gracious. Helped arrange new booking at other Marriott and car service. It does have a small deli with spirits for the weary traveller; wine can be purchased by the bottle, FYI. Rooms are decent and clean. Pool is pretty. More</t>
   </si>
   <si>
+    <t>Paula L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r227970366-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -843,6 +930,9 @@
     <t>Organized a stay here with a group for work and Frank was an incredibly helpful person in making this happen. Very accommodating to our needs and so cheerful and friendly the entire time. All staff I encountered were also the same (Jacob and Lorraine). The hotel recently got renovated so the rooms are fantastic as well, and the lobby and bistro area is also super cute and comfortable. I would highly recommend this place for anyone looking for a place to stay in the area!More</t>
   </si>
   <si>
+    <t>NHDad86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r225051752-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -870,6 +960,9 @@
     <t>There is a ton of roadwork going on.  This makes it hard to get in and out.  Also, the service in the early morning was  spotty.  Hard to find someone to get a coffee.  The hotel is kept in decent shape.  There are better choices nearby. Stay in downtown Ft. Worth or in stockyards area. There is more to do and it is easier to get in and out. More</t>
   </si>
   <si>
+    <t>Lucas R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r224320294-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -891,6 +984,9 @@
     <t>I would like to profoundly express our appreciation and gratitude for all the help in resolving my prompt stay and comfort. Brenna you have been an invaluable source or someone who I can reach out too.  This hotel is the friendliest and has (one) of the best service in the Fossile Creek, Ft Worth area.  Thank you (all) again and please dont stop.More</t>
   </si>
   <si>
+    <t>Peggy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r220221151-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1011,9 @@
     <t>I was tired, had traveled all day, met with a client and was ready to unwind. When I got to the hotel it was an all Pepsi Location - OH NO. I need my coke or will have a bad night. I simply asked if I could get one anywhere it was critical on my list to unwind and Frank Jodzio and Jacob said we will make it happen. I couldn't believe I didn't have to go out myself they called 5 minutes later and said we will bring to your room. Absolutely Awesome. Who else or where else would they do that for you? Rachel at the Bistro was friendly and there to help. Great place to stayMore</t>
   </si>
   <si>
+    <t>GLK512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r219917117-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1032,9 @@
     <t>This hotel is the friendliest and has the best service in the Fossil Creek ,Ft Worth  area. Jacob and Arturo both go out of their way to ensure that I have a great stay.  I stay at this hotel regularly. This is a nice clean hotel and recently renovated.More</t>
   </si>
   <si>
+    <t>Melanie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r212631468-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1062,9 @@
     <t>Megan, the girl at front desk was so friendly and willing To go over and above for us, her bright smile was encouraging.the pool is in a very good location, always has a good angle of the sun, the hotel is very quiet and comforting.More</t>
   </si>
   <si>
+    <t>Kim T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r212622722-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1080,9 @@
     <t>This hotel was very clean, staff were very friendly, and it's a nice place to stay for a few days. Jacob at the front counter was helpful and kind. There were plenty of places to sit and visit and the pool was small but clean and comfortable.More</t>
   </si>
   <si>
+    <t>Chris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r210171436-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1107,9 @@
     <t>When you stay at a Courtyard you don't expect complimentary breakfasts. There is a Luby's next door, a Whataburger, Jack-In-The-Box, Burger King, Panda Express, Arby's and a Taco Bueno within walking distance.Staff was responsive and friendly.I used the pool (outdoor) twice during two stays in June of 2014. I chose this hotel over a downtown hotel for my second stay in June because they have a guest laundry room (one washer and one dryer at $1.50 per each).My room was clean and comfortable. I was happy to have a small fridge in my room.More</t>
   </si>
   <si>
+    <t>saywho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r208924756-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1137,9 @@
     <t>I really enjoyed my stay at the hotel, It was very nice, and the bed was very comfortable! Jacob Miller was very nice and helpful! I would def stay here again. Walking distance to different restaurants.More</t>
   </si>
   <si>
+    <t>pavliak1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r199821700-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1164,9 @@
     <t>Nice place to stay. Clean and reasonable.  Staff were very courteous .ask for a room away from the busy highway. Str bucks in the lobby too.  Would be nice for a free breakfast though. Even if it's continentalMore</t>
   </si>
   <si>
+    <t>Brad J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r183680404-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1194,9 @@
     <t>Second time we had stayed at this hotel in the last 45 days, Great service great food, pleasant atmosphere, hotel staff is top notch. They still have a little road construction in the area, but still easy to get around. Will be back soon.More</t>
   </si>
   <si>
+    <t>IntBizTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r183095885-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1215,9 @@
     <t>Truly disappointed, originally scheduled for two night, I moved after the first night. It's a pretty dated economy hotel with a new lobby. Pretty close to the highway so it's noisy. Still have those big window/wall ac unit. The pillows and sheets are not comfortable. Courtyard is just not my thing.More</t>
   </si>
   <si>
+    <t>Dolores I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r182149215-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1236,9 @@
     <t>After staying at this hotel for 8 years I can certainly give this hotel the best ever rating. I lived and maintained an office in this hotel continually for 8 years prior to and during the complete remodeling in 2013.  The new decor, Bistro, lobby, rooms are all  so comfortable.  The entire Staff are well trained and friendly.  Now I make almost weekly trips back I am still  treated like family.  Altho the freeway construction is inconvenient, will soon be completed and more easily accessed to and from and to other locations for business, entertainment, movies, restaurants.   You will enjoy the Fossil Creek Courtyard.More</t>
   </si>
   <si>
+    <t>Barry0404</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r182080216-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1260,9 @@
     <t>Hi, I stayed at hotel on Oct 8,9,10 and had an great experience. My room was up to date, Bathroom was new, Room was small but I had a king Bed. The best part of the stay was the staff...Breakfast! There was construction around place but there were restaurants to walk to...I would stay there again. Kudos's to the staff, They made it great.More</t>
   </si>
   <si>
+    <t>Paul G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r181050124-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1287,9 @@
     <t>We recently had the chance to stay here during the AOPO convention in Fort Worth.  The recent renovations are very well done and nicely appointed.  The rooms were spacious and clean and the new lobby area made us feel very welcome.  The staff was great and friendly and I would absolutely recommend this hotel to anyone staying in the area.More</t>
   </si>
   <si>
+    <t>mrmcc916</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r180472409-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1311,9 @@
     <t>A little rough to get too.  Not much there for food choices but the staff can direct you to other options.  Rooms are clean, beds comfortable and the cafe downstairs is excellent.  I would stay here again and as a matter of fact we are for next year when at a trade show.  Hopefully the freeways are better by then.More</t>
   </si>
   <si>
+    <t>Phillip S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r178230413-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1332,9 @@
     <t>As a Platinum Member, I stay obviously in a number of Marriotts' throughout the year. This Courtyard has undergone a MAJOR renovation and may I say, the dust is gone and the staff is as wonderful as the new look and feel of this hotel! I will stay at this property whenever I am in the Fort Worth area again!More</t>
   </si>
   <si>
+    <t>McHorseOats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r178204749-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1351,9 @@
   </si>
   <si>
     <t>I recently visited the Fossil Creek Courtyard and was amazed at the change accomplished during the renovation.  This hotel has literally done a 180.  On top of that, I experienced great customer service, especially from Laura at the front desk.  The room was above average for a hotel that seems to have a little age on it. The road construction was a little annoying (no too bad), but what can the hotel do about that?More</t>
+  </si>
+  <si>
+    <t>jeff m</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r177686985-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1735,43 +1876,47 @@
       <c r="A2" t="n">
         <v>33265</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127486</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1789,56 +1934,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33265</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>127487</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1852,50 +2001,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33265</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>634</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1911,56 +2064,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33265</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>19432</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1972,56 +2129,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33265</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>4621</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2039,50 +2200,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33265</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2096,50 +2261,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33265</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127488</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2151,56 +2320,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33265</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127489</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="K9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2220,50 +2393,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33265</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127490</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2277,50 +2454,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33265</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127491</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2332,56 +2513,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33265</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>127492</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2401,50 +2586,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33265</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127493</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2458,50 +2647,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33265</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>831</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2519,56 +2712,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33265</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127494</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2588,50 +2785,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33265</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127495</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2651,50 +2852,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33265</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127496</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2712,50 +2917,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33265</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>20839</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2773,56 +2982,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33265</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127497</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2838,56 +3051,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33265</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2901,7 +3118,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
@@ -2914,37 +3131,37 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2962,56 +3179,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="X21" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33265</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3643</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3029,56 +3250,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33265</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127498</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3090,56 +3315,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33265</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>12950</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3155,56 +3384,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="X24" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33265</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127499</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3220,56 +3453,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="X25" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33265</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127500</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3285,56 +3522,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="X26" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Y26" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33265</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3352,56 +3593,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33265</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127501</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3419,41 +3664,45 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="X28" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33265</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>223</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3469,51 +3718,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33265</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>127502</v>
+      </c>
+      <c r="C30" t="s">
+        <v>272</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3529,56 +3779,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="X30" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33265</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>127503</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3590,56 +3844,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="X31" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33265</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>11499</v>
+      </c>
+      <c r="C32" t="s">
+        <v>288</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3657,56 +3915,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="X32" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33265</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>127504</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3718,56 +3980,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="X33" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33265</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>127505</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3785,56 +4051,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="X34" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33265</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>23828</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -3850,56 +4120,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="X35" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Y35" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33265</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>127506</v>
+      </c>
+      <c r="C36" t="s">
+        <v>325</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3917,56 +4191,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="X36" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33265</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>127507</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3988,56 +4266,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="X37" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33265</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>14633</v>
+      </c>
+      <c r="C38" t="s">
+        <v>342</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4059,56 +4341,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="X38" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33265</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>578</v>
+      </c>
+      <c r="C39" t="s">
+        <v>348</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4130,56 +4416,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33265</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127508</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4201,56 +4491,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="X40" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="Y40" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33265</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>127509</v>
+      </c>
+      <c r="C41" t="s">
+        <v>367</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4272,56 +4566,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="X41" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="Y41" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33265</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>14166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>376</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="J42" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K42" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4343,56 +4641,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="X42" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="Y42" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33265</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>68204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>386</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4404,56 +4706,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="X43" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="Y43" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33265</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>127510</v>
+      </c>
+      <c r="C44" t="s">
+        <v>393</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4475,56 +4781,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="X44" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="Y44" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33265</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127511</v>
+      </c>
+      <c r="C45" t="s">
+        <v>400</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="J45" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4546,56 +4856,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="X45" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33265</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>3553</v>
+      </c>
+      <c r="C46" t="s">
+        <v>408</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4617,56 +4931,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="X46" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="Y46" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33265</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>127512</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4688,56 +5006,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="X47" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="Y47" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33265</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>56481</v>
+      </c>
+      <c r="C48" t="s">
+        <v>425</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="K48" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="L48" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4759,56 +5081,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="X48" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="Y48" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33265</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>127513</v>
+      </c>
+      <c r="C49" t="s">
+        <v>432</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="J49" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4830,56 +5156,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="X49" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33265</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>32094</v>
+      </c>
+      <c r="C50" t="s">
+        <v>439</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4901,13 +5231,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="X50" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="Y50" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_145.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_145.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="734">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,177 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>PJT99</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r600594366-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109201</t>
+  </si>
+  <si>
+    <t>600594366</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Very clean!   Excellent stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for four nights on a vacation to the DFW area.   Our room was very clean, and check in was easy.  It was easy access from the interstate and close to many restaurants and businesses.  The lobby, business area, gym, and pool area were all well maintained.   We will come back if we are in the area again. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r598462203-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>598462203</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Easy access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved this place.  We were here for a wedding planning trip and had several vendors to meet with all over the Fort Worth area.  The hotel is located with easy freeway access in a non-congested area so we were able to avoid the headaches of DFW traffic.  Everything was clean and comfy.  Staff was friendly.  Lobby is set up to facilitate small group meetings, very convenient when vendors came to us.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r587518453-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>587518453</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time staying in the Fort Worth area and it definitely didn’t disappoint. The room was very large, spacious, and clean. The lobby was very welcoming and peaceful and the front desk staff were very nice and helpful upon arrival. Deserved a five star rating and located in a great location of Fort Worth as well. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r584416148-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>584416148</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Need a place to stay close to Fort Worth</t>
+  </si>
+  <si>
+    <t>Had meeting in the area and needed to be outside Fort Worth.Went here and had a very pleasant stay.The check in process was easy and the room, as always, was clean. They helped recommend local places to eat and the checkout was quick.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r571472146-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>571472146</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>After having a very bad experience at a nearby hotel, we were able to secure a room with this establishment without hassle, and very reasonably.  Our check in experience was seamless, and the staff most accommodating and courteous.  Though this is an older property, we found the rooms and all public areas to be clean, updated, and very well appointed.  Parking lot was lighted well, and we felt very secure.  Food in the Bistro was very good and served well.  Be aware that this hotel is very near the interstate and can be noisy if that bothers you.  There are fast food, and other chain restaurants in the area, though not in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>After having a very bad experience at a nearby hotel, we were able to secure a room with this establishment without hassle, and very reasonably.  Our check in experience was seamless, and the staff most accommodating and courteous.  Though this is an older property, we found the rooms and all public areas to be clean, updated, and very well appointed.  Parking lot was lighted well, and we felt very secure.  Food in the Bistro was very good and served well.  Be aware that this hotel is very near the interstate and can be noisy if that bothers you.  There are fast food, and other chain restaurants in the area, though not in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r569389350-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>569389350</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Stay Convenient Location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recently stayed at the Courtyard on a business trip. It was in a convenient location but right next to the interstate. I would suggest if staying here to request an interior room facing the courtyard. It is much quieter. The room was clean and offers a small fitness center and a bistro with pretty good food if you don’t feel like going out. It is within a couple of mile of several chain restaurants. The price is fair for what they offer. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r567515925-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>567515925</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>A motel experience for the price of Marriott</t>
+  </si>
+  <si>
+    <t>The hotel looks nice from outside, but their rooms are very small with pretty much everything inside the room are outdated to include decorations and appliances. The hotel doesn't provide complementary breakfast as most of the hotels do, and it doesn't have an exercise room or swimming pool as well. There is a small fridge in the room with no microwave paired with it. Instead, every floor shares one small microwave located in a tiny room hidden in the hallway with nothing else in the room except for the microwave, which is very weird! There was a fancy-look bottled water in my room and I thought it was provided by the hotel for free(included in the price of staying). After took a closer look, there was a $5 price tag on it (I have a whole case of bottled water in my vehicle for $3.99). If you would have opened it without paying attention, the hotel will charge you the price. My thoughts are the hotel might have reached some sort of sales agreement with the bottle water company to sell water for them in a tricky way to the hotel customers. My room had a queen size bed that I can pull out from the couch. The front desk provided all the bedding I needed for the pull-out, but I noticed there was a large yellow stain on the comforter they provided, which made the cleanness of all the...The hotel looks nice from outside, but their rooms are very small with pretty much everything inside the room are outdated to include decorations and appliances. The hotel doesn't provide complementary breakfast as most of the hotels do, and it doesn't have an exercise room or swimming pool as well. There is a small fridge in the room with no microwave paired with it. Instead, every floor shares one small microwave located in a tiny room hidden in the hallway with nothing else in the room except for the microwave, which is very weird! There was a fancy-look bottled water in my room and I thought it was provided by the hotel for free(included in the price of staying). After took a closer look, there was a $5 price tag on it (I have a whole case of bottled water in my vehicle for $3.99). If you would have opened it without paying attention, the hotel will charge you the price. My thoughts are the hotel might have reached some sort of sales agreement with the bottle water company to sell water for them in a tricky way to the hotel customers. My room had a queen size bed that I can pull out from the couch. The front desk provided all the bedding I needed for the pull-out, but I noticed there was a large yellow stain on the comforter they provided, which made the cleanness of all the hotel linings a big question mark. In addition, unlike the other hotels, all shampoo, conditioner and lotion are not provided in a one-time use container. Instead, they were put in large hand sanitize type of bottles and mounted on the wall in the bathroom. all these bottles had messy looking and I didn't ever bother to touch them.The only good thing about this hotel was the staff. they were friendly and helpful. Otherwise, I would give it this hotel a one star rating. in a nutshell, this hotels charges you for the price of a Marriott, but only gives you the experience of an upgraded Motel. Not recommended at all and will never go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pam P, General Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>The hotel looks nice from outside, but their rooms are very small with pretty much everything inside the room are outdated to include decorations and appliances. The hotel doesn't provide complementary breakfast as most of the hotels do, and it doesn't have an exercise room or swimming pool as well. There is a small fridge in the room with no microwave paired with it. Instead, every floor shares one small microwave located in a tiny room hidden in the hallway with nothing else in the room except for the microwave, which is very weird! There was a fancy-look bottled water in my room and I thought it was provided by the hotel for free(included in the price of staying). After took a closer look, there was a $5 price tag on it (I have a whole case of bottled water in my vehicle for $3.99). If you would have opened it without paying attention, the hotel will charge you the price. My thoughts are the hotel might have reached some sort of sales agreement with the bottle water company to sell water for them in a tricky way to the hotel customers. My room had a queen size bed that I can pull out from the couch. The front desk provided all the bedding I needed for the pull-out, but I noticed there was a large yellow stain on the comforter they provided, which made the cleanness of all the...The hotel looks nice from outside, but their rooms are very small with pretty much everything inside the room are outdated to include decorations and appliances. The hotel doesn't provide complementary breakfast as most of the hotels do, and it doesn't have an exercise room or swimming pool as well. There is a small fridge in the room with no microwave paired with it. Instead, every floor shares one small microwave located in a tiny room hidden in the hallway with nothing else in the room except for the microwave, which is very weird! There was a fancy-look bottled water in my room and I thought it was provided by the hotel for free(included in the price of staying). After took a closer look, there was a $5 price tag on it (I have a whole case of bottled water in my vehicle for $3.99). If you would have opened it without paying attention, the hotel will charge you the price. My thoughts are the hotel might have reached some sort of sales agreement with the bottle water company to sell water for them in a tricky way to the hotel customers. My room had a queen size bed that I can pull out from the couch. The front desk provided all the bedding I needed for the pull-out, but I noticed there was a large yellow stain on the comforter they provided, which made the cleanness of all the hotel linings a big question mark. In addition, unlike the other hotels, all shampoo, conditioner and lotion are not provided in a one-time use container. Instead, they were put in large hand sanitize type of bottles and mounted on the wall in the bathroom. all these bottles had messy looking and I didn't ever bother to touch them.The only good thing about this hotel was the staff. they were friendly and helpful. Otherwise, I would give it this hotel a one star rating. in a nutshell, this hotels charges you for the price of a Marriott, but only gives you the experience of an upgraded Motel. Not recommended at all and will never go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r566810395-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>566810395</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Spring break stay</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights over spring break. Room was only serviced once during that time. Had 5 people in our room, 2 adults and kids ages 8, 6, and 3 months. Appreciated the pull out couch so 8 &amp; 6 each got their own bed to sleep in. Even with the pullout extended we had plenty of space for the pack n play. Wifi was spotty. Shower took awhile to heat up. Other then those minor things our stay was satisfactory. Did not eat in the cafe because prices were high. MoreShow less</t>
+  </si>
+  <si>
+    <t>Pam P, General Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights over spring break. Room was only serviced once during that time. Had 5 people in our room, 2 adults and kids ages 8, 6, and 3 months. Appreciated the pull out couch so 8 &amp; 6 each got their own bed to sleep in. Even with the pullout extended we had plenty of space for the pack n play. Wifi was spotty. Shower took awhile to heat up. Other then those minor things our stay was satisfactory. Did not eat in the cafe because prices were high. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r555410103-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>109201</t>
-  </si>
-  <si>
     <t>555410103</t>
   </si>
   <si>
@@ -180,9 +336,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Pam P, General Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded January 23, 2018</t>
   </si>
   <si>
@@ -190,9 +343,6 @@
   </si>
   <si>
     <t>Not yet had the latest courtyard makeover, but pleasant enough place to stay.Smelled like someone had been smoking in my room, but smell cleared once I left the window open for a whilePleasant and helpful staffA few restaurants in walking distance and many within a short driveOutdoor pool and small gymMore</t>
-  </si>
-  <si>
-    <t>Deniz O</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r525470175-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -227,9 +377,6 @@
 The Bistro downstairs was very nice and the food was great. Just be aware of the times it's open and closed, because it's a limited window for breakfast, lunch, and dinner, including coffee service (Starbucks). The cashiers at the Bistro, too, were very friendly and super...My stay here was very pleasant. I was already expecting certain standards but the employees of this hotel exceed all expectations. I was greeted by Victor upon my arrival around 11 pm. He was very kind and welcoming despite the late hour. He checked me in and told me I could let him know right away if I needed anything. The room was very nicely decorated and felt cozy. Everything, including the bathroom, was super clean. The shower and the sink were shiny and new. I had a small issue during my stay which Valerie helped me with. She was very gentle and sweet, and took care of me in a way that was very important to me. Pam, the manager, also was very attentive to this issue, and helped me immensely. Apart from that, whenever I sat at the Bistro, I saw Pam walking around and making sure every guest was happy and taken care of. She is a great example of how a good manager should be like. I stayed for 5 nights and every time I entered through the sliding doors I was greeted genuinely and cheerfully. What a good feeling!The Bistro downstairs was very nice and the food was great. Just be aware of the times it's open and closed, because it's a limited window for breakfast, lunch, and dinner, including coffee service (Starbucks). The cashiers at the Bistro, too, were very friendly and super hospitable. My only complaint would be that there are no screen doors for balconies in regular rooms. They should definitely put those there with all the bugs flying around in the heat of Texas. I'm not a fan of AC and I'd like to air my room by leaving the balcony door open, however I was not able to do that due to the absence of screen doors, which left my room super stuffy. All in all, my experience was a very pleasant one. There is one person I have to mention separately, who has a big heart and who will go to great lengths to help you out with anything you need. And that is Beryl. She is a sweetheart and the star of my stay. From the moment I met her at the reception to the end when she gave me a big goodbye hug, along with a bag Haribos for my long flight to Turkey, she was the epitome of warm, genuine hospitality. People like her make stays at these hotels memorable and make you want to come back. God bless her. More</t>
   </si>
   <si>
-    <t>Robert G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r519702691-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -260,9 +407,6 @@
     <t>But not this one.  This was not one of the best Courtyards I have ever stayed at and I have stayed at many. The staff were friendly  and it was not dirty, it just lacked the quality feel of most Courtyards.More</t>
   </si>
   <si>
-    <t>Tony9876</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r482799474-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -290,9 +434,6 @@
     <t>I keep staying at Courtyards while also continuing to hope at some point Marriott recognizes the Bistro concept is not working as designed. Why do I choose Courtyard?  As a Marriott Platinum Elite customer, I almost exclusively stay at a Marriott hotel, about 100 nights a year. I dislike that Courtyard is the only Marriott brand where I get no breakfast accommodation. I stay at Courtyards because I get a good price, especially for weekend stays and almost always get a clean, well maintained room. No exception to that here, as the Fossil Creek location was a good stay, with a comfortable bed and decent sized room.More</t>
   </si>
   <si>
-    <t>Andrew W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r474973203-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -308,7 +449,196 @@
     <t>Nice clean hotel - very friendly staff, upgrade interior, nice breakfast area and tasty!   Very quiet room, comfortable, larger room than normal.   A few restaurants in the area also, close to highway...recommended !!</t>
   </si>
   <si>
-    <t>Dave M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r471920214-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>471920214</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Needs some TLC</t>
+  </si>
+  <si>
+    <t>Not up to CY standards in my opinion. Window were all extremely dirty, except for the front doors. Patio furniture was covered with dust and dirt. Housekeeping didn't replenish toiletries. Staff was friendly and professional. Wouldn't be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Jore W, Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Not up to CY standards in my opinion. Window were all extremely dirty, except for the front doors. Patio furniture was covered with dust and dirt. Housekeeping didn't replenish toiletries. Staff was friendly and professional. Wouldn't be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r469156456-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>469156456</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gymnastics meet </t>
+  </si>
+  <si>
+    <t>We booked this hotel as a group for a gymnastics meet. The event specialist, Jore, was just amazing. Our rooms were great, and the services she set up for our group were top-notch. We will definitely return when we are back in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r459808045-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>459808045</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Nice Courtyard with very nice staff &amp; quiet inside</t>
+  </si>
+  <si>
+    <t>Stayed there on business 2/16, extremely nice staff and the room was exceptionally quiet.  Be sure and plan ahead and allow extra time due to the highway construction.  This place is an absolute bear to find at night due to the construction.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r448377701-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>448377701</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Clean, convenient, courteous, and quiet</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights, in a suite.  Room was very comfortable, and the whole place was very clean. The staff was exceptionally friendly and helpful.  The bistro has some nice breakfast choices and Starbucks coffee. I would stay here again without hesitation.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r444126450-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>444126450</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Awesome choice !</t>
+  </si>
+  <si>
+    <t>Very happy with our stay. Great staff, service and experience. Clean, modern, well appointed rooms. Great breakfast service from the nice Salvadoran lady.  ProfessionaI staff.  My entire crew highly recommend this hotel. .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r442901083-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>442901083</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courtyard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel . It was clean and the front desk staff was quite friendly . The bistro has the typical courtyard menu but it is quite good . The rooms are quiet and the temperature control works well . They have a fitness center with two tread mills and a rack of weights . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r441333770-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>441333770</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Top Notch Service</t>
+  </si>
+  <si>
+    <t>My fiance and I stayed at this hotel the night before our wedding.  From the time I check in until the time I checked out, we were treated like royalty.  The staff were very accommodating to all of our requests.  They greeted us with smiles and cheers as we left for our wedding.  The rooms were clean and very spacious.  The breakfast provided at the bistro was awesome.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r432095265-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>432095265</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>car show @speedway</t>
+  </si>
+  <si>
+    <t>very pleasant stay and looking foward to next years stay.thank you very much for your hospitality.we enjoyed your hospitality of helping us locate a nice place to eat dinner. very kind and would recommend  it to anyone.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r419967339-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>419967339</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Another very nice visit</t>
+  </si>
+  <si>
+    <t>We have stayed here several times, since my husband's family lives in the area.  We are consistently very happy with the quality of the hotel, the friendliness and dedication of the staff, and the cleanliness of the rooms.  During our last visit, the manager took the time to show their appreciation for our Platinum Elite status, that she hand wrote a Thank You note to us!!  What other hotel does that!?!?We'll be back; that is guaranteed.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r408786683-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>408786683</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I booked a trip for 9 Sr. Executives with the hotel's Event Specialist, and she was an absolute pleasure to work with and paid attention to every detail.  She was very professional, attended to everyone's needs and was always available.  She went above and beyond to make sure everyone enjoyed their stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Hoteldfw, General Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>I booked a trip for 9 Sr. Executives with the hotel's Event Specialist, and she was an absolute pleasure to work with and paid attention to every detail.  She was very professional, attended to everyone's needs and was always available.  She went above and beyond to make sure everyone enjoyed their stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r406847966-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -329,9 +659,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Shalanda30</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r399509859-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -347,12 +674,6 @@
     <t>The hotel is in an excellent location. There's a Luby's and Jack in the Box next door.  They offer free WiFi, so this was a plus. There is no complimentary breakfast, but they do have a menu that you can order from.  You can include breakfast in your room fee.  We were given a cost of $80, a special rate for a family and friends gathering. The hotel wasn't worth the 80.00.  The staff was awesome and helpful. The rooms are small. The bed faces the window and the television is to the left of the bed, so you have to position yourself to view it.  The room didn't smell fresh and the bathroom floor was not clean.  Overall, it was an average hotel.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Jore W, Guest Relations Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded August 2, 2016</t>
   </si>
   <si>
@@ -362,9 +683,6 @@
     <t>The hotel is in an excellent location. There's a Luby's and Jack in the Box next door.  They offer free WiFi, so this was a plus. There is no complimentary breakfast, but they do have a menu that you can order from.  You can include breakfast in your room fee.  We were given a cost of $80, a special rate for a family and friends gathering. The hotel wasn't worth the 80.00.  The staff was awesome and helpful. The rooms are small. The bed faces the window and the television is to the left of the bed, so you have to position yourself to view it.  The room didn't smell fresh and the bathroom floor was not clean.  Overall, it was an average hotel.More</t>
   </si>
   <si>
-    <t>PapmientoToday</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r395155085-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -380,9 +698,6 @@
     <t>I'm so thankful for the staff at this hotel for taking such good care of me over the past six months. The property is perfectly acceptable but it's the employees that make it great. Thanks is especially owed to, in no particular order: Beryl, Judy, Sonyette, Victoria, and Matt! Thanks gang!!!</t>
   </si>
   <si>
-    <t>travelingtx85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r391077785-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -398,9 +713,6 @@
     <t xml:space="preserve">Over the past week we stayed in 4 different Marriotts. This one, although not the most up to date, had the most space. Separate sitting room from the bathroom with doors to close off the rooms. Staff was friendly. Cold A/C. I would stay here again when in the area. </t>
   </si>
   <si>
-    <t>Jolita88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r390886819-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -425,7 +737,94 @@
     <t>Upon arrival my card wouldn't work, not sure why, but my husband's from the same bank did work. I was surprised when the clerk told me the card would be charged $28 more than what I made the reservation for, and embarrassed when I felt she was insinuating we couldn't afford the stay when my card wouldn't go through. When unloading our card, the door key was "eaten" when put in the box on the door.1st trip to desk for help. We went out to sight-see a bit. Upon returning to our room we realized there was not remote for the television. 2nd call to the office. We're in a king room with a sofa bed. But, no bedding get for it in the room. Small problems, but still inconveniences to us. Our room is nice and the bed is clean and well appointed, albeit a little crowded.More</t>
   </si>
   <si>
-    <t>WorldwidetravelerUsa</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r389357084-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>389357084</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Billy Bob's visit</t>
+  </si>
+  <si>
+    <t>Met up with a large group to visit Billy Bob's.  Many Ft. Worth roads under construction, but we had an easy trek to Billy Bob's.  Parking lot was well lit at the hotel.  Staff were friendly and the room was ready when promised.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r386739782-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>386739782</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed only one night, but location was not difficult to get to though other reviews said the construction was difficult. I didn't have any issue. Staff was great, and slept with ease. I am a reward member so I got free wifi. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r379627647-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>379627647</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Quiet, partially updated, excellent staff</t>
+  </si>
+  <si>
+    <t>My family stayed here two nights because of flooding around our house south of Ft Worth.The lobby and rooms are updated nicely. Some features (elevators, doors) are not updated but it's not a big deal. The hotel is quiet and the construction on the roads around the hotel was not difficult to navigate, however, we are familiar with the area.The staff was absolutely fantastic. Judy, a front desk receptionist, was exceptionally accommodating and helpful. Everyone on the staff we encountered was wonderful.We were not able to use the pool because of heavy rain and there is no hot tub which is unusual for a Courtyard but it would not prevent me from staying here again.I would highly recommend this hotel for cost, quality and the friendliest staff I have ever encountered!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>My family stayed here two nights because of flooding around our house south of Ft Worth.The lobby and rooms are updated nicely. Some features (elevators, doors) are not updated but it's not a big deal. The hotel is quiet and the construction on the roads around the hotel was not difficult to navigate, however, we are familiar with the area.The staff was absolutely fantastic. Judy, a front desk receptionist, was exceptionally accommodating and helpful. Everyone on the staff we encountered was wonderful.We were not able to use the pool because of heavy rain and there is no hot tub which is unusual for a Courtyard but it would not prevent me from staying here again.I would highly recommend this hotel for cost, quality and the friendliest staff I have ever encountered!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r377986037-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>377986037</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Location is Convenient &amp; A Good Hotel</t>
+  </si>
+  <si>
+    <t>There is a Whataburger practically next door, along with tons of other restaurants and bars and shopping in the area. Hotel is right off of the highway and easy to find. Rooms are average Courtyard and they have an outdoor pool, no spa. Our room was clean and comfortable and the AC worked great! We styed here while visiting family in Ft Worth, but this hotel is really not far to get to Stockyards Station by car. Although currently the high way is a mess! Staff was very friendly also.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Pam P, Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>There is a Whataburger practically next door, along with tons of other restaurants and bars and shopping in the area. Hotel is right off of the highway and easy to find. Rooms are average Courtyard and they have an outdoor pool, no spa. Our room was clean and comfortable and the AC worked great! We styed here while visiting family in Ft Worth, but this hotel is really not far to get to Stockyards Station by car. Although currently the high way is a mess! Staff was very friendly also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r377634634-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>377634634</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My son and I stayed here for a baseball tournament.   The rooms were very nice and updated.   I didn't hear any noise all night even though they were sold out. The beds were very comfortable.    The General Manager Pam was amazing.   There was a little confusion initially about the room but she went above and beyond to make it right.  I will definitely stay here again. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r359145748-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -449,9 +848,6 @@
     <t>We stayed in this hotel for 2 nights.  Our room was very clean as were the hallways and the lobby.  The staff was pleasant and helpful.  There is a nicely landscaped courtyard with a clean pool area.  Unfortunately, there is a lot of highway construction in the immediate area which which the hotel can't control.  Be prepared to spend extra time accessing and exiting from I-820 and I-35W if you stay here. In the lobby there is a nice selection of free newspapers but there is no free coffee.  The food and drink items in the hotel's dining area are all sold a la carte unless you book a rate which includes breakfast or meals.More</t>
   </si>
   <si>
-    <t>Sehler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r358887603-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -470,9 +866,6 @@
     <t>We recently stayed 4 nights at this hotel. Overall, we enjoyed the stay. The interstate is very close and is fairly noisy in the evenings -- not loud enough to wake you but can be annoying when trying to get to sleep. The property is clean and well-maintained and the front desk staff were friendly. The bed was very comfortable and the free internet worked well. On our last evening, the alarm went off about 4:30 in the morning. All guests were heading to the lobby when the first group came back up and said there was a water leak which triggered the alarm. Everyone went back to their rooms but THE ALARM WASN'T SHUT OFF!!! It is extremely loud and blared for approximately 20 minutes!!!  Not sure what took so long to turn it off, but it was definitely annoying. All in all though, we were pleased with the hotel and will stay here again when in the area. More</t>
   </si>
   <si>
-    <t>Brian S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r357312781-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -497,9 +890,6 @@
     <t>The building is an older building that has been updated in the main areas. More work needs to be done to bring this to Marriott standards. The room was musty (I presume from being an older building). The dresser/television was located to the right of the bed instead of in front. The room had a balcony, which was a plus. The staff was friendly and prompt. We did breakfast elsewhere due to the limited choices and pricing at the hotel bistro. Overall, the bed was comfortable and the hotel is in a nice neighborhood. I expected a little more from the Marriott name though.More</t>
   </si>
   <si>
-    <t>hacker0124</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r354358186-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -518,9 +908,6 @@
     <t>As I have returned to business travel, I have been forced to deviate form my typical Starwood lodging preference (I know Marriott purchased Starwood, but not relevant until mid-2016) So this choice is the best possible given the circumstances. All of that being said, the Courtyard at Fossil Creek is a very nice business hotel. Large clean rooms, free WiFi (important), a place that serves food and beverages and cocktails.The rooms are exceptionally clean, and very large. The only issue I saw was our location close to the 820 freeway resulted in a certain amount of traffic noise. That being said, the bed was comfortable and the road noise in no way effected my sleep.I had one issue with the bedroom television, which was corrected immediately. The front desk staff was helpful and cordial, the mixoligist maybe a bit over the top, but beverages were as ordered.All in all, good stay. I was at this property for four nights. I would stay at this property again, and has opened ,me up to possibly other Courtyard properties in the future!More</t>
   </si>
   <si>
-    <t>jamieandwill</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r354206496-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -539,7 +926,103 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Bee-stone</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r345619535-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>345619535</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Nice visit- will definitely return!</t>
+  </si>
+  <si>
+    <t>The hotel was very convenient &amp; easy to get to. It has a little Bistro with bar that is nice enough not to have to leave the hotel.  The fitness center was very nice and clean, with good equipment.  The room was clean.  Very small vanity outside the bathroom.  Strange layout because the TV was beside the bed.  Had a small fridge which I didn't need but was in an awkward place right inside the doorway.  Very comfortable room!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r334220967-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>334220967</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Located near Billy Bobs &amp; Stockyards</t>
+  </si>
+  <si>
+    <t>The location is initially what lured us to the Marriott Courtyard, but upon arrival we discovered highway construction in full swing. The alternate routes were tough since we were not familiar with the area. This will eventually clear up, but be sure you know your route to attractions around the hotel and avoid driving in circles. The rooms are quiet and priced right. However, the high bar and breakfast prices can take away any savings you may realize. The convenience of being close to the attractions we came to visit makes this a very good choice. I would stay here again for my next crosstown visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Frank J, General Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2015</t>
+  </si>
+  <si>
+    <t>The location is initially what lured us to the Marriott Courtyard, but upon arrival we discovered highway construction in full swing. The alternate routes were tough since we were not familiar with the area. This will eventually clear up, but be sure you know your route to attractions around the hotel and avoid driving in circles. The rooms are quiet and priced right. However, the high bar and breakfast prices can take away any savings you may realize. The convenience of being close to the attractions we came to visit makes this a very good choice. I would stay here again for my next crosstown visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r332568322-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>332568322</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Solid Courtyard</t>
+  </si>
+  <si>
+    <t>We stayed three nights at this hotel. I'm not a fan of Courtyard hotels generally because they are very cookie-cutter with little to offer other than consistency across thier brand. This hotel was an older, standard Courtyard with the remodeled lobby and bistro, old elevators and short ceilings. The difference here was one employee, Beryl who made our stay fantastic. She was incredible when we checked in and everytime we saw her gave us a warm, genuine greeting. It is clear she cares for her guests and embodies the Marriott brand.The room was clean, and again standard Courtyard quality. The hotel could use some updating in terms of the elevators and other common areas, excluding the lobby. Overall decent stay. Beryl at the front desk should work at a JW Marriott or other hotel where her talent could be better utilized; she is a true ambassador of the Marriott brand! If I were to come back to this area I would stay here again because of the service. Construction on the 35W wasn't a problem as we used Google maps which helped us to avoid delays and find the property without issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed three nights at this hotel. I'm not a fan of Courtyard hotels generally because they are very cookie-cutter with little to offer other than consistency across thier brand. This hotel was an older, standard Courtyard with the remodeled lobby and bistro, old elevators and short ceilings. The difference here was one employee, Beryl who made our stay fantastic. She was incredible when we checked in and everytime we saw her gave us a warm, genuine greeting. It is clear she cares for her guests and embodies the Marriott brand.The room was clean, and again standard Courtyard quality. The hotel could use some updating in terms of the elevators and other common areas, excluding the lobby. Overall decent stay. Beryl at the front desk should work at a JW Marriott or other hotel where her talent could be better utilized; she is a true ambassador of the Marriott brand! If I were to come back to this area I would stay here again because of the service. Construction on the 35W wasn't a problem as we used Google maps which helped us to avoid delays and find the property without issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r326488656-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>326488656</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Good Location. Very nice suite</t>
+  </si>
+  <si>
+    <t>Across street from Luby's. Inside is a Starbucks. Very clean and comfortable suite. Updated décor. I was surprised. Road work in this area is being finished, but easy to get to now. Personnel very friendly and they do a very good job.Met some very nice ladies working the check-in. We will go back, we always stay in the Fossil Creek area when traveling 287 North.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r321783250-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>321783250</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diggin' the Bistro </t>
+  </si>
+  <si>
+    <t>Stayed for four nights visiting family in Fort Worth.  Like mentioned in other reviews, there is a giant highway construction project going on in the immediate area.  Made it a slight more effort to pull into the hotel parking lot, but obviously not the hotel's fault.  That and apparently Texas doesn't believe in putting on ramps in both directions at each major arterial.  Had to go east for an exit to go westbound on the freeway - by design.  Weird.  Anyway, we really liked the casual cool bistro lobby design.  Had dinner one night at the bistro and it was great.  Had a tasty spicy margarita and a yummy basil blackberry Collins.  French dip and salad were also good.  Will be staying at the courtyards with the bistro whenever possible. Rooms were clean as usual.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Stayed for four nights visiting family in Fort Worth.  Like mentioned in other reviews, there is a giant highway construction project going on in the immediate area.  Made it a slight more effort to pull into the hotel parking lot, but obviously not the hotel's fault.  That and apparently Texas doesn't believe in putting on ramps in both directions at each major arterial.  Had to go east for an exit to go westbound on the freeway - by design.  Weird.  Anyway, we really liked the casual cool bistro lobby design.  Had dinner one night at the bistro and it was great.  Had a tasty spicy margarita and a yummy basil blackberry Collins.  French dip and salad were also good.  Will be staying at the courtyards with the bistro whenever possible. Rooms were clean as usual.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r321742120-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -548,21 +1031,12 @@
     <t>321742120</t>
   </si>
   <si>
-    <t>10/25/2015</t>
-  </si>
-  <si>
     <t>Nice stay</t>
   </si>
   <si>
     <t>We got a sub $100 rate on expedia and couldn't have been happier with the value. Everything was new and clean and the staff was courteous and efficient. They have a Starbuck in the lobby, which I consider a downside (I'd rather have free coffee than their overpriced stuff), but I know a lot of you will consider that a selling point.</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t>Kathy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r308140409-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -581,9 +1055,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded September 9, 2015</t>
   </si>
   <si>
@@ -593,9 +1064,6 @@
     <t>This is a lovely Courtyard, but hard to get to and get around due to the intense highway construction still going on in Fort Worth.  The hotel staff did a great job in offering suggestions to avoid the worst of the traffic tie-ups, but it will take longer than you'd expect to get around the DFW area from this neighborhood.More</t>
   </si>
   <si>
-    <t>HenHoo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r306038923-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -623,9 +1091,6 @@
     <t>I've stayed here twice in the past month. It's a decent hotel and the staff is very good. I've stayed at some other hotels in the area and it's a good choice. The gym is small but if you are up by 6, there is usually nobody there.  Be aware that it is very close (less than 100 yards) from I-820 and the odd numbered rooms at the front are quite loud. If you can be in one of the back wings or an even number, you should be OK.More</t>
   </si>
   <si>
-    <t>Eric S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r305927706-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -665,9 +1130,6 @@
     <t>Hotel is a bit of driving from DFW airport but the facility is brand spanking new.  You can actually smell the new paint and wallpaper throughout.  Front desk service is excellent as I arrived after midnight and realized booked into a different hotel some distance away but the staff swiftly cancelled my booking and get me into a room within 15 minutes.  Outstanding service!!Good sized room and lighting (unlike other ones that makes you go for treasure hunt in the semi-dark space).  Towels are fresh and fluffy.  Excellent choice in the Fort Worth area and will definitely return in the future.More</t>
   </si>
   <si>
-    <t>Virginia C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r294840674-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -695,9 +1157,6 @@
     <t>My husband and I arrived about 9pm for a one night stay, flying out the next morning for a funeral in Phoenix. Needless to say we were tired. When we turned down the bed what a surprise to find the beds (all we could get when we booked were two double beds) dirty. There were hair in both beds and the sheets were very obviously slept in. After notifying management we were immediately given another room, but we had to repack and move our own things. I had also booked this hotel on our return for 3 nights, as our daughter lives in Ft Worth and a chance to visit with her. I immediately cancelled those reservations and booked the Hampton Inn down the road. Upon check out, management removed $30. off our bill. We did not ask for a discount but it was a nice gesture. Manager said she would make sure staff was retrained. The very least a guest should expect is a clean bed with clean linens!More</t>
   </si>
   <si>
-    <t>LeanCEO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r292188923-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -722,9 +1181,6 @@
     <t>Our business group stayed here based on TripAdvisor rating, but we won't again.  My first room (305) faced the freeway and was very noisy.  Traffic, jake brakes, and so forth all day and night.  The a/c unit was incredibly noisy and cycled every 5 or 6 minutes, preventing sleep the first night. I changed to a pool facing room the second night which helped a lot, but still noise from the a/c unit.  If you're a light sleeper, this place is not for you.  Another in our party had a broken coffee maker, another found hairs in the shower, another had a soggy carpet.  More</t>
   </si>
   <si>
-    <t>Cindy R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r291555412-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -743,9 +1199,6 @@
     <t>This is a very nice, very clean hotel. I stayed 2 consecutive weekends and both times my room and bathroom was spotless.  No funny odors like many hotels have, either. I love their beds!!!  So comfy.  The rooms I stayed in were very quiet (regarding outside noise).  We swam in the pool...nice...they provide pool noodles! :-)  The gym is pretty good, too.  The only thing I don't like...no breakfast included.  You have to pay for meals at their little bistro, which is not open all the time. Overall, it is a great, inexpensive place to stay.  We will stay here every time we come to town!  Oh, and pay for Wifi if you need a really fast connection, especially for business. Otherwise, Wifi is free.More</t>
   </si>
   <si>
-    <t>RickPerrotta</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r288687235-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -764,9 +1217,6 @@
     <t>Solid Courtyard Marriott experience. Staff is welcoming and provides great service. Family friendly and business traveler efficient. Good suites for extra space, good pool and patio to relax, bistro serves good food.More</t>
   </si>
   <si>
-    <t>kathleenjm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r276617654-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -783,9 +1233,6 @@
   </si>
   <si>
     <t>We are staying here for my daughter's wedding this Friday.  My husband is a platinum member and we are using points to book 3 rooms to accommodate family. Plans kept changing and I had a hodgepodge of reservations with rooms that needed to be King instead of doubles, etc.  Frank put all of the random pieces together into one nice reservation where we could all be on the same floor and not checking in and out and changing rooms every day! I kept questioning him about how he was able to pull this all together, when I had called to try and make this change and they were unable to do it.  I learned that he was not even supposed to be at the front desk at all, but had noticed it was unmanned for a minute and took the responsibility to cover. He is a gem!!!!  Can't say enough good things about him and his attitude and ability to get things done! So grateful!!!!!More</t>
-  </si>
-  <si>
-    <t>KatieG958</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r275736964-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -822,9 +1269,6 @@
 The rooms were nicely sized. Our wheelchair was able to maneuver fairly well with minimal furniture movement. Practically the entire hotel is carpeted, so keep that in mind if you are pushing a wheelchair. However, it...While the hotel was rather difficult to locate (due to construction, detours, and small amount of signage, GPS had us looping around for a short while, etc.), once located it was easy to get in-and-out of. It was right off the freeway, so getting out of town was made much easier.In reviewing other hotel reviews (including the Fairfield next door), some have mentioned the area being “higher” crime (thefts and burglary). We did not have any issues – granted we always made certain to park in front of the hotel with plenty of lighting nearby, but I felt secure the entire time.The hotel is an older facility, but our room was clean and the public areas smelled nice and sanitized. Even the stairwell was clean and fresh smelling.The staff from the front desk to housekeeping to the bistro was very friendly and willing to help. They always had a smile on their faces.Due to severe weather at our ultimate destination point, we chose to stay an extra night in Fort Worth right at noon, which is busy due to check-out. Dean at the front desk was very agreeable and helped re-secure our room for us in a matter of minutes.The rooms were nicely sized. Our wheelchair was able to maneuver fairly well with minimal furniture movement. Practically the entire hotel is carpeted, so keep that in mind if you are pushing a wheelchair. However, it is a relatively low pile, so it is was easy to move about.Overall, good experience and would return in the future.More</t>
   </si>
   <si>
-    <t>Jarrod K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r273108870-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -849,10 +1293,25 @@
     <t>269045935</t>
   </si>
   <si>
-    <t>April 30, 2015</t>
-  </si>
-  <si>
-    <t>baileespoppa</t>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>thank you Ling!!!</t>
+  </si>
+  <si>
+    <t>nice clean property. typical of CY's. most significant was the help i received from Ling at the front desk, helping by printing and copying a business document i needed to make some last minute changes on. Ling's helpfulness and smile are not typical anywhere! she's a gem.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>nice clean property. typical of CY's. most significant was the help i received from Ling at the front desk, helping by printing and copying a business document i needed to make some last minute changes on. Ling's helpfulness and smile are not typical anywhere! she's a gem.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r267606715-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -870,9 +1329,6 @@
     <t>We decided to take the grandkids with us this year to attend the NCAA Women's Gymnastic Championships.  They have going to meets at UGA for years and to a few post season meets, but we have not been able to take all four teenagers by plane before.  We chose Courtyard for their suites able to accommodate six people.  We loved our room.  It was large enough to allow for privacy:  two queen beds, fold out couch/bed, one and a half baths and a kitchenette with fridge and microwave.  All four teens were able to charge their phones at the same time and Poppa was able to hook up the laptop as well.  The Grands went to the fitness center several times and did laundry twice.  They only went to the pool once: stayed until their lips turned blue. We ate in the Bistro a couple of times and enjoyed it. Hotel is clean and near the Expressways (Loop 820 &amp; I-35).  Had a little difficulty due to construction on Loop 820.  There is some noise from freeway traffic but we had no trouble sleeping.  My only complaint was that online booking indicated we could get a roll-away bed. At check-in we were told they did not have roll-aways.MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded April 27, 2015</t>
   </si>
   <si>
@@ -882,9 +1338,6 @@
     <t>We decided to take the grandkids with us this year to attend the NCAA Women's Gymnastic Championships.  They have going to meets at UGA for years and to a few post season meets, but we have not been able to take all four teenagers by plane before.  We chose Courtyard for their suites able to accommodate six people.  We loved our room.  It was large enough to allow for privacy:  two queen beds, fold out couch/bed, one and a half baths and a kitchenette with fridge and microwave.  All four teens were able to charge their phones at the same time and Poppa was able to hook up the laptop as well.  The Grands went to the fitness center several times and did laundry twice.  They only went to the pool once: stayed until their lips turned blue. We ate in the Bistro a couple of times and enjoyed it. Hotel is clean and near the Expressways (Loop 820 &amp; I-35).  Had a little difficulty due to construction on Loop 820.  There is some noise from freeway traffic but we had no trouble sleeping.  My only complaint was that online booking indicated we could get a roll-away bed. At check-in we were told they did not have roll-aways.More</t>
   </si>
   <si>
-    <t>wvappaloosa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r267596390-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -900,7 +1353,253 @@
     <t>I stayed here for business and found the staff super helpful. Very gracious. Helped arrange new booking at other Marriott and car service. It does have a small deli with spirits for the weary traveller; wine can be purchased by the bottle, FYI. Rooms are decent and clean. Pool is pretty. More</t>
   </si>
   <si>
-    <t>Paula L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r266880425-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>266880425</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Pleasure</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while my daughter and myself visited Dallas/Ft Worth area attending the AMC Awards...very nice, clean, updated room and the staff was extremely nice! The bed was amazing...so comfortable! Very nice, safe area too!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while my daughter and myself visited Dallas/Ft Worth area attending the AMC Awards...very nice, clean, updated room and the staff was extremely nice! The bed was amazing...so comfortable! Very nice, safe area too!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r261560232-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>261560232</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay! Internet is real bad!</t>
+  </si>
+  <si>
+    <t>This courtyard has been renovated and they have new beds. Everything was comfortable. Staff are friendly. Ample parking space.  But Internet was real bad. I just got 1.97/1.50 Mbps download/upload speeds all days. This halted my work to a great extent. I never had similar issues with any other Courtyards. I also heard from my other collegues that Internet is bad even if you have paid high speed options. I guess once they fix this issue, I will bump up the rating to 4 stars rather than 3.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>This courtyard has been renovated and they have new beds. Everything was comfortable. Staff are friendly. Ample parking space.  But Internet was real bad. I just got 1.97/1.50 Mbps download/upload speeds all days. This halted my work to a great extent. I never had similar issues with any other Courtyards. I also heard from my other collegues that Internet is bad even if you have paid high speed options. I guess once they fix this issue, I will bump up the rating to 4 stars rather than 3.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r260340056-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>260340056</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Smooth stay.</t>
+  </si>
+  <si>
+    <t>Nice hotel, nice spot off the highway  The bed was comfy. Had everything I needed for an good stay.  The only issue was the the fridge started to make noise during the night but turned it off.  Wifi was great. Would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel, nice spot off the highway  The bed was comfy. Had everything I needed for an good stay.  The only issue was the the fridge started to make noise during the night but turned it off.  Wifi was great. Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r259967800-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>259967800</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Excellent Service, Accommodating Staff</t>
+  </si>
+  <si>
+    <t>We intended to stay at the Fossil Creek Courtyard for two nights but, due to an unusual snowstorm, we ended up staying there 4! During that hectic time, the staff was so helpful to us. My daughter was moving from Texas to Illinois so our car was filled with some things that we needed to off-load ... including unopened food from her pantry. The staff offered to take it off our hands and donate it for us. The room itself was perfect if you have to stay for 4 nights with a 4 year old in tow ... it was a double queen suite. I would strongly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>We intended to stay at the Fossil Creek Courtyard for two nights but, due to an unusual snowstorm, we ended up staying there 4! During that hectic time, the staff was so helpful to us. My daughter was moving from Texas to Illinois so our car was filled with some things that we needed to off-load ... including unopened food from her pantry. The staff offered to take it off our hands and donate it for us. The room itself was perfect if you have to stay for 4 nights with a 4 year old in tow ... it was a double queen suite. I would strongly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r259770692-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>259770692</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>comfy spot for weary travelers</t>
+  </si>
+  <si>
+    <t>As always we go to Marriott, this courtyard is very clean, bed good, surrounding areas great, like the starbucks coffee bar, greeted nicely.  I do have one really major complaint...BETTER directions, we used gps and went in circles 3 times on same roads in bad traffic 3 different exits and finally were told in l,000 feet you are at destination..it was a plowed up field.........by the time we finally got there weary travelers were more weary and frustrated.  They were very nice and understood as it is a problem they have..upgraded us and gave us appetizer coupons for restaurant we went to Saltgrass.  The staff admitted they have a huge problem and needs to be fixed cause the hotel itself is awesome but some may give up and go elsewhere.  I agree needs free coffee in lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>As always we go to Marriott, this courtyard is very clean, bed good, surrounding areas great, like the starbucks coffee bar, greeted nicely.  I do have one really major complaint...BETTER directions, we used gps and went in circles 3 times on same roads in bad traffic 3 different exits and finally were told in l,000 feet you are at destination..it was a plowed up field.........by the time we finally got there weary travelers were more weary and frustrated.  They were very nice and understood as it is a problem they have..upgraded us and gave us appetizer coupons for restaurant we went to Saltgrass.  The staff admitted they have a huge problem and needs to be fixed cause the hotel itself is awesome but some may give up and go elsewhere.  I agree needs free coffee in lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r256011627-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>256011627</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>jj from nebraska</t>
+  </si>
+  <si>
+    <t>I found this king bed room to be very comfortable.  Sofa and desk with chair gave some extra room to spread out my things.  I also made use of the mini refrig and the in-room coffee maker.  the pillows and bed linens were very nice.I really enjoyed the fresh crisp fruit-infused ice water in the lobby.Jacob was on duty the night I checked in (without a reservation) and was very helpful.  Gary also was very helpful in informing me about the restaurant and making sure I felt free to call on the hotel staff for any needs that may arise.  I also received help from a really nice lady at the front desk with some directions for my drive since there was considerable construction on the interstate at the time of my stay.  There is a large touch screen map on the wall of the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>I found this king bed room to be very comfortable.  Sofa and desk with chair gave some extra room to spread out my things.  I also made use of the mini refrig and the in-room coffee maker.  the pillows and bed linens were very nice.I really enjoyed the fresh crisp fruit-infused ice water in the lobby.Jacob was on duty the night I checked in (without a reservation) and was very helpful.  Gary also was very helpful in informing me about the restaurant and making sure I felt free to call on the hotel staff for any needs that may arise.  I also received help from a really nice lady at the front desk with some directions for my drive since there was considerable construction on the interstate at the time of my stay.  There is a large touch screen map on the wall of the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r249236768-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>249236768</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Very good hotel</t>
+  </si>
+  <si>
+    <t>I definitely recommend this place as its only a 30 minute drive from DFW Airport and near a lot of restaurants. The rooms are clean and the service is great. I highly recommend this place for long term stays and for people looking to near DFW Airport. They offer a bar just like all Courtyard Hotels but there's a lot of places nearby to go to too. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2015</t>
+  </si>
+  <si>
+    <t>I definitely recommend this place as its only a 30 minute drive from DFW Airport and near a lot of restaurants. The rooms are clean and the service is great. I highly recommend this place for long term stays and for people looking to near DFW Airport. They offer a bar just like all Courtyard Hotels but there's a lot of places nearby to go to too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r238379052-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>238379052</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>OK, Nothing Special....But No Free Coffee?</t>
+  </si>
+  <si>
+    <t>Not a bad hotel, but what hotel doesn't offer free coffee in the lobby anymore? TWICE had to wait in line behind people ordering coffee and other breakfast items......just wanted coffee. Rooms OK....property ok.....but just cant get over no free coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Steph22286, Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded November 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2014</t>
+  </si>
+  <si>
+    <t>Not a bad hotel, but what hotel doesn't offer free coffee in the lobby anymore? TWICE had to wait in line behind people ordering coffee and other breakfast items......just wanted coffee. Rooms OK....property ok.....but just cant get over no free coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r235647166-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>235647166</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Conference stay</t>
+  </si>
+  <si>
+    <t>The front desk staff Gary and Jacob were excellent.  They were very helpful and accommodating while we were there.  They did everything with a smile and never acted like it was a bother.  The coffee in the morning was a plus.  The girls did a great job.MoreShow less</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>The front desk staff Gary and Jacob were excellent.  They were very helpful and accommodating while we were there.  They did everything with a smile and never acted like it was a bother.  The coffee in the morning was a plus.  The girls did a great job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r232464162-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>232464162</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel! But!</t>
+  </si>
+  <si>
+    <t>We stayed during the Ft. Worth Stockshow, and apparently the Catalytic Converter Thieves were working Overtime! Mine got stolen at this Hotel, they did assist me in filing a Police Report, and Hired extra security for the remainder of my stay. They don't have Cameras in the Parking lot, but they do warn you that they don't with signage. So, I give them Kudos for the Security, and I have to say the SERVICE is Phenomenal!!!! I would stay there again, yes, the construction is a NIGHTMARE, but it is a Very Nice Hotel for the Price! I was just one of the MANY UNFORTUNATE victims of the Converter Thieves this year at the Stockshow!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>We stayed during the Ft. Worth Stockshow, and apparently the Catalytic Converter Thieves were working Overtime! Mine got stolen at this Hotel, they did assist me in filing a Police Report, and Hired extra security for the remainder of my stay. They don't have Cameras in the Parking lot, but they do warn you that they don't with signage. So, I give them Kudos for the Security, and I have to say the SERVICE is Phenomenal!!!! I would stay there again, yes, the construction is a NIGHTMARE, but it is a Very Nice Hotel for the Price! I was just one of the MANY UNFORTUNATE victims of the Converter Thieves this year at the Stockshow!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r227970366-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -930,9 +1629,6 @@
     <t>Organized a stay here with a group for work and Frank was an incredibly helpful person in making this happen. Very accommodating to our needs and so cheerful and friendly the entire time. All staff I encountered were also the same (Jacob and Lorraine). The hotel recently got renovated so the rooms are fantastic as well, and the lobby and bistro area is also super cute and comfortable. I would highly recommend this place for anyone looking for a place to stay in the area!More</t>
   </si>
   <si>
-    <t>NHDad86</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r225051752-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -960,9 +1656,6 @@
     <t>There is a ton of roadwork going on.  This makes it hard to get in and out.  Also, the service in the early morning was  spotty.  Hard to find someone to get a coffee.  The hotel is kept in decent shape.  There are better choices nearby. Stay in downtown Ft. Worth or in stockyards area. There is more to do and it is easier to get in and out. More</t>
   </si>
   <si>
-    <t>Lucas R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r224320294-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -984,9 +1677,6 @@
     <t>I would like to profoundly express our appreciation and gratitude for all the help in resolving my prompt stay and comfort. Brenna you have been an invaluable source or someone who I can reach out too.  This hotel is the friendliest and has (one) of the best service in the Fossile Creek, Ft Worth area.  Thank you (all) again and please dont stop.More</t>
   </si>
   <si>
-    <t>Peggy A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r220221151-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +1701,6 @@
     <t>I was tired, had traveled all day, met with a client and was ready to unwind. When I got to the hotel it was an all Pepsi Location - OH NO. I need my coke or will have a bad night. I simply asked if I could get one anywhere it was critical on my list to unwind and Frank Jodzio and Jacob said we will make it happen. I couldn't believe I didn't have to go out myself they called 5 minutes later and said we will bring to your room. Absolutely Awesome. Who else or where else would they do that for you? Rachel at the Bistro was friendly and there to help. Great place to stayMore</t>
   </si>
   <si>
-    <t>GLK512</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r219917117-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1032,7 +1719,121 @@
     <t>This hotel is the friendliest and has the best service in the Fossil Creek ,Ft Worth  area. Jacob and Arturo both go out of their way to ensure that I have a great stay.  I stay at this hotel regularly. This is a nice clean hotel and recently renovated.More</t>
   </si>
   <si>
-    <t>Melanie D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r218250099-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>218250099</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>So Grateful We Found It!!</t>
+  </si>
+  <si>
+    <t>We traveled to the area (6 hours one way) for a ballgame.  We had reservations and checked into a hotel (which I also reviewed) closer to the ballpark.  We left within a few minutes because it was so disgusting.  By this time it was quite late and we have to young children.  We called all over and finally found a room here.  It was exceptionally clean, quiet, and welcoming! The lady at the desk that night (July 25th) was so sweet and kind and was so much appreciated by our family.  The construction is not ideal, but wasn't a deterrent for us.  The pool area was very nice and I love a good cup of Starbucks to start my day!  We will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>We traveled to the area (6 hours one way) for a ballgame.  We had reservations and checked into a hotel (which I also reviewed) closer to the ballpark.  We left within a few minutes because it was so disgusting.  By this time it was quite late and we have to young children.  We called all over and finally found a room here.  It was exceptionally clean, quiet, and welcoming! The lady at the desk that night (July 25th) was so sweet and kind and was so much appreciated by our family.  The construction is not ideal, but wasn't a deterrent for us.  The pool area was very nice and I love a good cup of Starbucks to start my day!  We will definitely be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r216931077-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>216931077</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>GREAT Experience!</t>
+  </si>
+  <si>
+    <t>LOVED the hotel!  Stayed here with a group of girlfriends.  So clean and quiet.  Had the friendliest staff ever, from the desk clerks to the housekeeping staff to the servers in the café area.  Desk clerk Jacob was so helpful with everything from restaurant suggestions, entertainment ideas and directions.  Breakfast was delicious with reasonable prices.  Yes, there was road construction but we avoided it by taking back roads and it was so easy to get around.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>LOVED the hotel!  Stayed here with a group of girlfriends.  So clean and quiet.  Had the friendliest staff ever, from the desk clerks to the housekeeping staff to the servers in the café area.  Desk clerk Jacob was so helpful with everything from restaurant suggestions, entertainment ideas and directions.  Breakfast was delicious with reasonable prices.  Yes, there was road construction but we avoided it by taking back roads and it was so easy to get around.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r215641351-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>215641351</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>The place was impossible to find by gps because all the construction nearby.  I spent 45 minutes being misdirected by the gps.   Apparently they knew the problem because many people were having that problem.  Check in took forever because they kept answering the phone to give directions. The manager acknowledged GPS issues for the area and told me to disregard gps and gave me directions to my meeting the next day.   Unfortunately the directions he have me were completely wrong and sent me 40 minutes in the wrong direction resulting in a missed business meeting!   My whole reason for coming to dfw and staying at this hotel was for the meeting but his wrong directions was an embarrassment to my client and waste of my time and money. The stay was one huge frustration.   MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Frank J, Event Specialist at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2014</t>
+  </si>
+  <si>
+    <t>The place was impossible to find by gps because all the construction nearby.  I spent 45 minutes being misdirected by the gps.   Apparently they knew the problem because many people were having that problem.  Check in took forever because they kept answering the phone to give directions. The manager acknowledged GPS issues for the area and told me to disregard gps and gave me directions to my meeting the next day.   Unfortunately the directions he have me were completely wrong and sent me 40 minutes in the wrong direction resulting in a missed business meeting!   My whole reason for coming to dfw and staying at this hotel was for the meeting but his wrong directions was an embarrassment to my client and waste of my time and money. The stay was one huge frustration.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r213748445-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>213748445</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Great location (Road Construction Nightmare)</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for business the first week in July, the property is a great value. A positive is that the hotel is close to major roadways and numerous places to eat. The bad part is the road construction, if you miss a turn you have to go miles before you can make U-turn.  From what I was told this is a long term project.The hotel staff was very friendly and the the room was clean. Nothing special just a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steph22286, Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded July 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for business the first week in July, the property is a great value. A positive is that the hotel is close to major roadways and numerous places to eat. The bad part is the road construction, if you miss a turn you have to go miles before you can make U-turn.  From what I was told this is a long term project.The hotel staff was very friendly and the the room was clean. Nothing special just a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r213286183-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>213286183</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Bad Back Sufferer Mocked/Wedding Ring lost</t>
+  </si>
+  <si>
+    <t>stayed 6/28-6/29. I'm 6'4" tall. Hit my head on Exit sign on 3rd floor. All other signs are lower. During shower, took off wedding ring and left in soap dish. Forgot it. Called 4 times and talked with staff. Was told they would call back in 15 minutes. They never called back. Called 5th time. Attitude of staff was not caring or showed concern for my problem. Stated that room was inspected before/after cleaning. Stated they talked with room inspector &amp; maid but no ring was found. I'm a Mason/Shriner and would not lie about this. Their staff has my wedding ring. Sent complaint on their website, was not called back. Front Desk Clerk Sunday morning was hanging out at Breakfast area (no free coffee or breakfast) and was mocking me and having fun at my expense due to my back being out.  Worst experience at a hotel EVER.MoreShow less</t>
+  </si>
+  <si>
+    <t>stayed 6/28-6/29. I'm 6'4" tall. Hit my head on Exit sign on 3rd floor. All other signs are lower. During shower, took off wedding ring and left in soap dish. Forgot it. Called 4 times and talked with staff. Was told they would call back in 15 minutes. They never called back. Called 5th time. Attitude of staff was not caring or showed concern for my problem. Stated that room was inspected before/after cleaning. Stated they talked with room inspector &amp; maid but no ring was found. I'm a Mason/Shriner and would not lie about this. Their staff has my wedding ring. Sent complaint on their website, was not called back. Front Desk Clerk Sunday morning was hanging out at Breakfast area (no free coffee or breakfast) and was mocking me and having fun at my expense due to my back being out.  Worst experience at a hotel EVER.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r212631468-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1050,21 +1851,9 @@
     <t>Megan, the girl at front desk was so friendly and willing To go over and above for us, her bright smile was encouraging.the pool is in a very good location, always has a good angle of the sun, the hotel is very quiet and comforting.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
-    <t>Steph22286, Manager at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded July 7, 2014</t>
-  </si>
-  <si>
-    <t>Responded July 7, 2014</t>
-  </si>
-  <si>
     <t>Megan, the girl at front desk was so friendly and willing To go over and above for us, her bright smile was encouraging.the pool is in a very good location, always has a good angle of the sun, the hotel is very quiet and comforting.More</t>
   </si>
   <si>
-    <t>Kim T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r212622722-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1080,9 +1869,6 @@
     <t>This hotel was very clean, staff were very friendly, and it's a nice place to stay for a few days. Jacob at the front counter was helpful and kind. There were plenty of places to sit and visit and the pool was small but clean and comfortable.More</t>
   </si>
   <si>
-    <t>Chris M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r210171436-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1107,9 +1893,6 @@
     <t>When you stay at a Courtyard you don't expect complimentary breakfasts. There is a Luby's next door, a Whataburger, Jack-In-The-Box, Burger King, Panda Express, Arby's and a Taco Bueno within walking distance.Staff was responsive and friendly.I used the pool (outdoor) twice during two stays in June of 2014. I chose this hotel over a downtown hotel for my second stay in June because they have a guest laundry room (one washer and one dryer at $1.50 per each).My room was clean and comfortable. I was happy to have a small fridge in my room.More</t>
   </si>
   <si>
-    <t>saywho</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r208924756-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1119,9 +1902,6 @@
     <t>06/04/2014</t>
   </si>
   <si>
-    <t>Great Stay!</t>
-  </si>
-  <si>
     <t>I really enjoyed my stay at the hotel, It was very nice, and the bed was very comfortable! Jacob Miller was very nice and helpful! I would def stay here again. Walking distance to different restaurants.MoreShow less</t>
   </si>
   <si>
@@ -1137,9 +1917,6 @@
     <t>I really enjoyed my stay at the hotel, It was very nice, and the bed was very comfortable! Jacob Miller was very nice and helpful! I would def stay here again. Walking distance to different restaurants.More</t>
   </si>
   <si>
-    <t>pavliak1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r199821700-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1164,7 +1941,121 @@
     <t>Nice place to stay. Clean and reasonable.  Staff were very courteous .ask for a room away from the busy highway. Str bucks in the lobby too.  Would be nice for a free breakfast though. Even if it's continentalMore</t>
   </si>
   <si>
-    <t>Brad J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r196039908-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>196039908</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Jacob WasVery Helpful When I Left A Valuable Behind- Thanks To Jacob My glasses Were Located And Returned!</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Service.....Appreciated Housekeeping As Well :)  the only thing that could be improved is the the trash dumpsters don't really need to be emptied at 3 o'clock in the morning. they woke my husband and I.MoreShow less</t>
+  </si>
+  <si>
+    <t>Laura F, Property Coordinator at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Service.....Appreciated Housekeeping As Well :)  the only thing that could be improved is the the trash dumpsters don't really need to be emptied at 3 o'clock in the morning. they woke my husband and I.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r195146304-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>195146304</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away off of I-35 and 820.  Easy drive to downtown, the Stockyards or Texas Motor Speedway.  The staff was very friendly and most helpful.  It has been under recent renovation so everything is nicely updated.  Clean and comfortable. Just wHat you expect for a Courtyard. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Laura F, Property Coordinator at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away off of I-35 and 820.  Easy drive to downtown, the Stockyards or Texas Motor Speedway.  The staff was very friendly and most helpful.  It has been under recent renovation so everything is nicely updated.  Clean and comfortable. Just wHat you expect for a Courtyard. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r190874485-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>190874485</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>Best Customer Service of 3 Week Trip!</t>
+  </si>
+  <si>
+    <t>We have stayed at many hotels but the customer service here is amazing thanks to JAKE at the front desk!  My husband &amp; I were on our way back to stay near the Dallas Airport &amp; got lost in all the road construction, driving in circles for several hours. It was dark &amp; we were exhausted when we spotted this Courtyard Marriott. Jake immediately recognized the terrible day we'd had, found us a quiet room, asked if we were hungry and gave us directions to 2 restaurants that were just a short distance away.  He assured us that we would not have to go back onto the highway to get to either one!  When we arrived back from dinner he immediately asked which restaurant we chose and if we were happy with it.  It was one of the best Mexican dinners we had on our entire trip! He also gave us easy directions to the airport for the following morning. Because of Jake our last day of vacation ended much better than it had started! We were very impressed with Jake - for a young man his age he was dressed professionally &amp; knew what he was doing.  Also, the young man at the deli the next morning, Arturo, did a great job with my coffee even though he was fairly new on the job.  He was very pleasant &amp; wanted to get it just right.  Great hotel staff made...We have stayed at many hotels but the customer service here is amazing thanks to JAKE at the front desk!  My husband &amp; I were on our way back to stay near the Dallas Airport &amp; got lost in all the road construction, driving in circles for several hours. It was dark &amp; we were exhausted when we spotted this Courtyard Marriott. Jake immediately recognized the terrible day we'd had, found us a quiet room, asked if we were hungry and gave us directions to 2 restaurants that were just a short distance away.  He assured us that we would not have to go back onto the highway to get to either one!  When we arrived back from dinner he immediately asked which restaurant we chose and if we were happy with it.  It was one of the best Mexican dinners we had on our entire trip! He also gave us easy directions to the airport for the following morning. Because of Jake our last day of vacation ended much better than it had started! We were very impressed with Jake - for a young man his age he was dressed professionally &amp; knew what he was doing.  Also, the young man at the deli the next morning, Arturo, did a great job with my coffee even though he was fairly new on the job.  He was very pleasant &amp; wanted to get it just right.  Great hotel staff made for a great stay.  Very clean, comfortable hotel with nice lobby/deli area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at many hotels but the customer service here is amazing thanks to JAKE at the front desk!  My husband &amp; I were on our way back to stay near the Dallas Airport &amp; got lost in all the road construction, driving in circles for several hours. It was dark &amp; we were exhausted when we spotted this Courtyard Marriott. Jake immediately recognized the terrible day we'd had, found us a quiet room, asked if we were hungry and gave us directions to 2 restaurants that were just a short distance away.  He assured us that we would not have to go back onto the highway to get to either one!  When we arrived back from dinner he immediately asked which restaurant we chose and if we were happy with it.  It was one of the best Mexican dinners we had on our entire trip! He also gave us easy directions to the airport for the following morning. Because of Jake our last day of vacation ended much better than it had started! We were very impressed with Jake - for a young man his age he was dressed professionally &amp; knew what he was doing.  Also, the young man at the deli the next morning, Arturo, did a great job with my coffee even though he was fairly new on the job.  He was very pleasant &amp; wanted to get it just right.  Great hotel staff made...We have stayed at many hotels but the customer service here is amazing thanks to JAKE at the front desk!  My husband &amp; I were on our way back to stay near the Dallas Airport &amp; got lost in all the road construction, driving in circles for several hours. It was dark &amp; we were exhausted when we spotted this Courtyard Marriott. Jake immediately recognized the terrible day we'd had, found us a quiet room, asked if we were hungry and gave us directions to 2 restaurants that were just a short distance away.  He assured us that we would not have to go back onto the highway to get to either one!  When we arrived back from dinner he immediately asked which restaurant we chose and if we were happy with it.  It was one of the best Mexican dinners we had on our entire trip! He also gave us easy directions to the airport for the following morning. Because of Jake our last day of vacation ended much better than it had started! We were very impressed with Jake - for a young man his age he was dressed professionally &amp; knew what he was doing.  Also, the young man at the deli the next morning, Arturo, did a great job with my coffee even though he was fairly new on the job.  He was very pleasant &amp; wanted to get it just right.  Great hotel staff made for a great stay.  Very clean, comfortable hotel with nice lobby/deli area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r188588355-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>188588355</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Excellent Service!</t>
+  </si>
+  <si>
+    <t>I stayed at the Marriott Fort Worth Fossil Creek in Oct of 2013. I found the help to be amazing! I only wish I took the names of the folks who helped me.  There is an incredible amount of construction going on around the area and the staff was able to help me avoid all of it! The room was very clean. I have spent over 70 nights in hotels this year and this was one of my favorites! I rate it as excellent!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Laura F, Property Coordinator at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded December 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the Marriott Fort Worth Fossil Creek in Oct of 2013. I found the help to be amazing! I only wish I took the names of the folks who helped me.  There is an incredible amount of construction going on around the area and the staff was able to help me avoid all of it! The room was very clean. I have spent over 70 nights in hotels this year and this was one of my favorites! I rate it as excellent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r186387963-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>186387963</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Renovation and Superior Customer Service</t>
+  </si>
+  <si>
+    <t>We've stayed at this particular Marriott before but the last few times it has been under renovation and unable for us to stay.  We were lucky enough to come back after everything was finished and it was a lovely renovation.  What struck me the most was the customer service.  The woman on duty was delightful and well versed at her job.  I don't usually stand around and make small talk but that day I did.  Her courteous manner stood out to me.  It will make me come back from now on.  Some hotels may be nicer but this was is superior in customer service and that means the world to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed at this particular Marriott before but the last few times it has been under renovation and unable for us to stay.  We were lucky enough to come back after everything was finished and it was a lovely renovation.  What struck me the most was the customer service.  The woman on duty was delightful and well versed at her job.  I don't usually stand around and make small talk but that day I did.  Her courteous manner stood out to me.  It will make me come back from now on.  Some hotels may be nicer but this was is superior in customer service and that means the world to me.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r183680404-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1182,9 +2073,6 @@
     <t>Second time we had stayed at this hotel in the last 45 days, Great service great food, pleasant atmosphere, hotel staff is top notch. They still have a little road construction in the area, but still easy to get around. Will be back soon.MoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>Laura F, Property Coordinator at Courtyard by Marriott Fort Worth Fossil Creek, responded to this reviewResponded November 17, 2013</t>
   </si>
   <si>
@@ -1194,9 +2082,6 @@
     <t>Second time we had stayed at this hotel in the last 45 days, Great service great food, pleasant atmosphere, hotel staff is top notch. They still have a little road construction in the area, but still easy to get around. Will be back soon.More</t>
   </si>
   <si>
-    <t>IntBizTraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r183095885-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1215,9 +2100,6 @@
     <t>Truly disappointed, originally scheduled for two night, I moved after the first night. It's a pretty dated economy hotel with a new lobby. Pretty close to the highway so it's noisy. Still have those big window/wall ac unit. The pillows and sheets are not comfortable. Courtyard is just not my thing.More</t>
   </si>
   <si>
-    <t>Dolores I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r182149215-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1236,9 +2118,6 @@
     <t>After staying at this hotel for 8 years I can certainly give this hotel the best ever rating. I lived and maintained an office in this hotel continually for 8 years prior to and during the complete remodeling in 2013.  The new decor, Bistro, lobby, rooms are all  so comfortable.  The entire Staff are well trained and friendly.  Now I make almost weekly trips back I am still  treated like family.  Altho the freeway construction is inconvenient, will soon be completed and more easily accessed to and from and to other locations for business, entertainment, movies, restaurants.   You will enjoy the Fossil Creek Courtyard.More</t>
   </si>
   <si>
-    <t>Barry0404</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r182080216-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1260,9 +2139,6 @@
     <t>Hi, I stayed at hotel on Oct 8,9,10 and had an great experience. My room was up to date, Bathroom was new, Room was small but I had a king Bed. The best part of the stay was the staff...Breakfast! There was construction around place but there were restaurants to walk to...I would stay there again. Kudos's to the staff, They made it great.More</t>
   </si>
   <si>
-    <t>Paul G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r181050124-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1287,9 +2163,6 @@
     <t>We recently had the chance to stay here during the AOPO convention in Fort Worth.  The recent renovations are very well done and nicely appointed.  The rooms were spacious and clean and the new lobby area made us feel very welcome.  The staff was great and friendly and I would absolutely recommend this hotel to anyone staying in the area.More</t>
   </si>
   <si>
-    <t>mrmcc916</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r180472409-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1311,9 +2184,6 @@
     <t>A little rough to get too.  Not much there for food choices but the staff can direct you to other options.  Rooms are clean, beds comfortable and the cafe downstairs is excellent.  I would stay here again and as a matter of fact we are for next year when at a trade show.  Hopefully the freeways are better by then.More</t>
   </si>
   <si>
-    <t>Phillip S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r178230413-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1332,9 +2202,6 @@
     <t>As a Platinum Member, I stay obviously in a number of Marriotts' throughout the year. This Courtyard has undergone a MAJOR renovation and may I say, the dust is gone and the staff is as wonderful as the new look and feel of this hotel! I will stay at this property whenever I am in the Fort Worth area again!More</t>
   </si>
   <si>
-    <t>McHorseOats</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r178204749-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1351,9 +2218,6 @@
   </si>
   <si>
     <t>I recently visited the Fossil Creek Courtyard and was amazed at the change accomplished during the renovation.  This hotel has literally done a 180.  On top of that, I experienced great customer service, especially from Laura at the front desk.  The room was above average for a hotel that seems to have a little age on it. The road construction was a little annoying (no too bad), but what can the hotel do about that?More</t>
-  </si>
-  <si>
-    <t>jeff m</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109201-r177686985-Courtyard_by_Marriott_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1876,118 +2740,100 @@
       <c r="A2" t="n">
         <v>33265</v>
       </c>
-      <c r="B2" t="n">
-        <v>127486</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33265</v>
       </c>
-      <c r="B3" t="n">
-        <v>127487</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2001,253 +2847,227 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33265</v>
       </c>
-      <c r="B4" t="n">
-        <v>634</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33265</v>
       </c>
-      <c r="B5" t="n">
-        <v>19432</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
         <v>65</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>85</v>
-      </c>
-      <c r="X5" t="s">
-        <v>86</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33265</v>
       </c>
-      <c r="B6" t="n">
-        <v>4621</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33265</v>
       </c>
-      <c r="B7" t="n">
-        <v>223</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2261,247 +3081,245 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33265</v>
       </c>
-      <c r="B8" t="n">
-        <v>127488</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33265</v>
       </c>
-      <c r="B9" t="n">
-        <v>127489</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33265</v>
       </c>
-      <c r="B10" t="n">
-        <v>127490</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33265</v>
       </c>
-      <c r="B11" t="n">
-        <v>127491</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2512,69 +3330,59 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>130</v>
-      </c>
-      <c r="X11" t="s">
-        <v>131</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33265</v>
       </c>
-      <c r="B12" t="n">
-        <v>127492</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2583,57 +3391,57 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33265</v>
       </c>
-      <c r="B13" t="n">
-        <v>127493</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2644,272 +3452,254 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33265</v>
       </c>
-      <c r="B14" t="n">
-        <v>831</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>154</v>
-      </c>
-      <c r="X14" t="s">
-        <v>155</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33265</v>
       </c>
-      <c r="B15" t="n">
-        <v>127494</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33265</v>
       </c>
-      <c r="B16" t="n">
-        <v>127495</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33265</v>
       </c>
-      <c r="B17" t="n">
-        <v>127496</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2917,195 +3707,161 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33265</v>
       </c>
-      <c r="B18" t="n">
-        <v>20839</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>185</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>186</v>
-      </c>
-      <c r="X18" t="s">
-        <v>187</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33265</v>
       </c>
-      <c r="B19" t="n">
-        <v>127497</v>
-      </c>
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>196</v>
-      </c>
-      <c r="X19" t="s">
-        <v>197</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33265</v>
       </c>
-      <c r="B20" t="n">
-        <v>1405</v>
-      </c>
-      <c r="C20" t="s">
-        <v>199</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>195</v>
-      </c>
-      <c r="O20" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -3118,7 +3874,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -3131,45 +3887,45 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3178,203 +3934,181 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>210</v>
-      </c>
-      <c r="X21" t="s">
-        <v>211</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33265</v>
       </c>
-      <c r="B22" t="n">
-        <v>3643</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>220</v>
-      </c>
-      <c r="X22" t="s">
-        <v>221</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33265</v>
       </c>
-      <c r="B23" t="n">
-        <v>127498</v>
-      </c>
-      <c r="C23" t="s">
-        <v>223</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>229</v>
-      </c>
-      <c r="X23" t="s">
-        <v>230</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33265</v>
       </c>
-      <c r="B24" t="n">
-        <v>12950</v>
-      </c>
-      <c r="C24" t="s">
-        <v>232</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3384,206 +4118,182 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33265</v>
       </c>
-      <c r="B25" t="n">
-        <v>127499</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>210</v>
-      </c>
-      <c r="X25" t="s">
-        <v>211</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33265</v>
       </c>
-      <c r="B26" t="n">
-        <v>127500</v>
-      </c>
-      <c r="C26" t="s">
-        <v>246</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="X26" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33265</v>
       </c>
-      <c r="B27" t="n">
-        <v>197</v>
-      </c>
-      <c r="C27" t="s">
-        <v>253</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3592,123 +4302,111 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>259</v>
-      </c>
-      <c r="X27" t="s">
-        <v>260</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33265</v>
       </c>
-      <c r="B28" t="n">
-        <v>127501</v>
-      </c>
-      <c r="C28" t="s">
-        <v>262</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>259</v>
-      </c>
-      <c r="X28" t="s">
-        <v>260</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33265</v>
       </c>
-      <c r="B29" t="n">
-        <v>223</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="J29" t="s">
-        <v>271</v>
-      </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>201</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
@@ -3718,122 +4416,115 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
+      <c r="W29" t="s">
+        <v>234</v>
+      </c>
+      <c r="X29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33265</v>
       </c>
-      <c r="B30" t="n">
-        <v>127502</v>
-      </c>
-      <c r="C30" t="s">
-        <v>272</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>279</v>
-      </c>
-      <c r="X30" t="s">
-        <v>280</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33265</v>
       </c>
-      <c r="B31" t="n">
-        <v>127503</v>
-      </c>
-      <c r="C31" t="s">
-        <v>282</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>278</v>
-      </c>
-      <c r="O31" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -3843,493 +4534,427 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>279</v>
-      </c>
-      <c r="X31" t="s">
-        <v>280</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33265</v>
       </c>
-      <c r="B32" t="n">
-        <v>11499</v>
-      </c>
-      <c r="C32" t="s">
-        <v>288</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>295</v>
-      </c>
-      <c r="X32" t="s">
-        <v>296</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33265</v>
       </c>
-      <c r="B33" t="n">
-        <v>127504</v>
-      </c>
-      <c r="C33" t="s">
-        <v>298</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="X33" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="Y33" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33265</v>
       </c>
-      <c r="B34" t="n">
-        <v>127505</v>
-      </c>
-      <c r="C34" t="s">
-        <v>308</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>305</v>
-      </c>
-      <c r="X34" t="s">
-        <v>306</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33265</v>
       </c>
-      <c r="B35" t="n">
-        <v>23828</v>
-      </c>
-      <c r="C35" t="s">
-        <v>316</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>322</v>
-      </c>
-      <c r="X35" t="s">
-        <v>323</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33265</v>
       </c>
-      <c r="B36" t="n">
-        <v>127506</v>
-      </c>
-      <c r="C36" t="s">
-        <v>325</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>322</v>
-      </c>
-      <c r="X36" t="s">
-        <v>323</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33265</v>
       </c>
-      <c r="B37" t="n">
-        <v>127507</v>
-      </c>
-      <c r="C37" t="s">
-        <v>332</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="J37" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="O37" t="s">
-        <v>108</v>
-      </c>
-      <c r="P37" t="n">
+        <v>123</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
         <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="X37" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33265</v>
       </c>
-      <c r="B38" t="n">
-        <v>14633</v>
-      </c>
-      <c r="C38" t="s">
-        <v>342</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="K38" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="O38" t="s">
-        <v>185</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
         <v>5</v>
       </c>
@@ -4340,73 +4965,61 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>339</v>
-      </c>
-      <c r="X38" t="s">
-        <v>340</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33265</v>
       </c>
-      <c r="B39" t="n">
-        <v>578</v>
-      </c>
-      <c r="C39" t="s">
-        <v>348</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="J39" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4415,287 +5028,225 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>354</v>
-      </c>
-      <c r="X39" t="s">
-        <v>355</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33265</v>
       </c>
-      <c r="B40" t="n">
-        <v>127508</v>
-      </c>
-      <c r="C40" t="s">
-        <v>357</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>364</v>
-      </c>
-      <c r="X40" t="s">
-        <v>365</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33265</v>
       </c>
-      <c r="B41" t="n">
-        <v>127509</v>
-      </c>
-      <c r="C41" t="s">
-        <v>367</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="X41" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="Y41" t="s">
-        <v>375</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33265</v>
       </c>
-      <c r="B42" t="n">
-        <v>14166</v>
-      </c>
-      <c r="C42" t="s">
-        <v>376</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="O42" t="s">
-        <v>74</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>383</v>
-      </c>
-      <c r="X42" t="s">
-        <v>384</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33265</v>
       </c>
-      <c r="B43" t="n">
-        <v>68204</v>
-      </c>
-      <c r="C43" t="s">
-        <v>386</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s">
-        <v>382</v>
-      </c>
-      <c r="O43" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
@@ -4705,299 +5256,245 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>383</v>
-      </c>
-      <c r="X43" t="s">
-        <v>384</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33265</v>
       </c>
-      <c r="B44" t="n">
-        <v>127510</v>
-      </c>
-      <c r="C44" t="s">
-        <v>393</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>383</v>
-      </c>
-      <c r="X44" t="s">
-        <v>384</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33265</v>
       </c>
-      <c r="B45" t="n">
-        <v>127511</v>
-      </c>
-      <c r="C45" t="s">
-        <v>400</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>402</v>
+        <v>334</v>
       </c>
       <c r="J45" t="s">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="K45" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>405</v>
-      </c>
-      <c r="X45" t="s">
-        <v>406</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33265</v>
       </c>
-      <c r="B46" t="n">
-        <v>3553</v>
-      </c>
-      <c r="C46" t="s">
-        <v>408</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>337</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>410</v>
+        <v>338</v>
       </c>
       <c r="J46" t="s">
-        <v>411</v>
+        <v>339</v>
       </c>
       <c r="K46" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>414</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
-        <v>415</v>
+        <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33265</v>
       </c>
-      <c r="B47" t="n">
-        <v>127512</v>
-      </c>
-      <c r="C47" t="s">
-        <v>417</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>418</v>
+        <v>346</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="J47" t="s">
-        <v>420</v>
+        <v>348</v>
       </c>
       <c r="K47" t="s">
-        <v>421</v>
+        <v>349</v>
       </c>
       <c r="L47" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -5006,135 +5503,113 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="X47" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="Y47" t="s">
-        <v>424</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33265</v>
       </c>
-      <c r="B48" t="n">
-        <v>56481</v>
-      </c>
-      <c r="C48" t="s">
-        <v>425</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>426</v>
+        <v>355</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>427</v>
+        <v>356</v>
       </c>
       <c r="J48" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="K48" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>405</v>
-      </c>
-      <c r="X48" t="s">
-        <v>406</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>431</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33265</v>
       </c>
-      <c r="B49" t="n">
-        <v>127513</v>
-      </c>
-      <c r="C49" t="s">
-        <v>432</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>434</v>
+        <v>360</v>
       </c>
       <c r="J49" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5142,12 +5617,8 @@
       <c r="Q49" t="n">
         <v>4</v>
       </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -5156,88 +5627,3296 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="X49" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="Y49" t="s">
-        <v>438</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33265</v>
       </c>
-      <c r="B50" t="n">
-        <v>32094</v>
-      </c>
-      <c r="C50" t="s">
-        <v>439</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="J50" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="K50" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s">
-        <v>444</v>
+        <v>372</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
+        <v>374</v>
+      </c>
+      <c r="X50" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>378</v>
+      </c>
+      <c r="J51" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" t="s">
+        <v>380</v>
+      </c>
+      <c r="L51" t="s">
+        <v>381</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>373</v>
+      </c>
+      <c r="O51" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>382</v>
+      </c>
+      <c r="X51" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="J52" t="s">
+        <v>387</v>
+      </c>
+      <c r="K52" t="s">
+        <v>388</v>
+      </c>
+      <c r="L52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>373</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>365</v>
+      </c>
+      <c r="X52" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="s">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s">
+        <v>394</v>
+      </c>
+      <c r="L53" t="s">
+        <v>395</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>342</v>
+      </c>
+      <c r="O53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>365</v>
+      </c>
+      <c r="X53" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>397</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>398</v>
+      </c>
+      <c r="J54" t="s">
+        <v>399</v>
+      </c>
+      <c r="K54" t="s">
+        <v>400</v>
+      </c>
+      <c r="L54" t="s">
+        <v>401</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>365</v>
+      </c>
+      <c r="X54" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>404</v>
+      </c>
+      <c r="J55" t="s">
         <v>405</v>
       </c>
-      <c r="X50" t="s">
+      <c r="K55" t="s">
         <v>406</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="L55" t="s">
+        <v>407</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>364</v>
+      </c>
+      <c r="O55" t="s">
+        <v>123</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>408</v>
+      </c>
+      <c r="X55" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>411</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>412</v>
+      </c>
+      <c r="J56" t="s">
+        <v>413</v>
+      </c>
+      <c r="K56" t="s">
+        <v>414</v>
+      </c>
+      <c r="L56" t="s">
+        <v>415</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>408</v>
+      </c>
+      <c r="X56" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>417</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>418</v>
+      </c>
+      <c r="J57" t="s">
+        <v>419</v>
+      </c>
+      <c r="K57" t="s">
+        <v>420</v>
+      </c>
+      <c r="L57" t="s">
+        <v>421</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>422</v>
+      </c>
+      <c r="O57" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>423</v>
+      </c>
+      <c r="X57" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>426</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>427</v>
+      </c>
+      <c r="J58" t="s">
+        <v>428</v>
+      </c>
+      <c r="K58" t="s">
+        <v>429</v>
+      </c>
+      <c r="L58" t="s">
+        <v>430</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>422</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>431</v>
+      </c>
+      <c r="X58" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>434</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>435</v>
+      </c>
+      <c r="J59" t="s">
+        <v>428</v>
+      </c>
+      <c r="K59" t="s">
+        <v>436</v>
+      </c>
+      <c r="L59" t="s">
+        <v>437</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>422</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>431</v>
+      </c>
+      <c r="X59" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>439</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>440</v>
+      </c>
+      <c r="J60" t="s">
+        <v>441</v>
+      </c>
+      <c r="K60" t="s">
+        <v>442</v>
+      </c>
+      <c r="L60" t="s">
+        <v>443</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>444</v>
+      </c>
+      <c r="X60" t="s">
         <v>445</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>447</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>448</v>
+      </c>
+      <c r="J61" t="s">
+        <v>449</v>
+      </c>
+      <c r="K61" t="s">
+        <v>450</v>
+      </c>
+      <c r="L61" t="s">
+        <v>451</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>452</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>453</v>
+      </c>
+      <c r="X61" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>457</v>
+      </c>
+      <c r="J62" t="s">
+        <v>458</v>
+      </c>
+      <c r="K62" t="s">
+        <v>459</v>
+      </c>
+      <c r="L62" t="s">
+        <v>460</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O62" t="s">
+        <v>189</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>453</v>
+      </c>
+      <c r="X62" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>462</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>463</v>
+      </c>
+      <c r="J63" t="s">
+        <v>464</v>
+      </c>
+      <c r="K63" t="s">
+        <v>465</v>
+      </c>
+      <c r="L63" t="s">
+        <v>466</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>467</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>468</v>
+      </c>
+      <c r="X63" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>472</v>
+      </c>
+      <c r="J64" t="s">
+        <v>473</v>
+      </c>
+      <c r="K64" t="s">
+        <v>474</v>
+      </c>
+      <c r="L64" t="s">
+        <v>475</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>452</v>
+      </c>
+      <c r="O64" t="s">
+        <v>123</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>476</v>
+      </c>
+      <c r="X64" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>479</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>480</v>
+      </c>
+      <c r="J65" t="s">
+        <v>481</v>
+      </c>
+      <c r="K65" t="s">
+        <v>482</v>
+      </c>
+      <c r="L65" t="s">
+        <v>483</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>467</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>484</v>
+      </c>
+      <c r="X65" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>487</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>488</v>
+      </c>
+      <c r="J66" t="s">
+        <v>489</v>
+      </c>
+      <c r="K66" t="s">
+        <v>490</v>
+      </c>
+      <c r="L66" t="s">
+        <v>491</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>492</v>
+      </c>
+      <c r="O66" t="s">
+        <v>123</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>493</v>
+      </c>
+      <c r="X66" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>497</v>
+      </c>
+      <c r="J67" t="s">
+        <v>498</v>
+      </c>
+      <c r="K67" t="s">
+        <v>499</v>
+      </c>
+      <c r="L67" t="s">
+        <v>500</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>501</v>
+      </c>
+      <c r="O67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>502</v>
+      </c>
+      <c r="X67" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>505</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>506</v>
+      </c>
+      <c r="J68" t="s">
+        <v>507</v>
+      </c>
+      <c r="K68" t="s">
+        <v>508</v>
+      </c>
+      <c r="L68" t="s">
+        <v>509</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>501</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>510</v>
+      </c>
+      <c r="X68" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>513</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>514</v>
+      </c>
+      <c r="J69" t="s">
+        <v>515</v>
+      </c>
+      <c r="K69" t="s">
+        <v>516</v>
+      </c>
+      <c r="L69" t="s">
+        <v>517</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>518</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>519</v>
+      </c>
+      <c r="X69" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>523</v>
+      </c>
+      <c r="J70" t="s">
+        <v>524</v>
+      </c>
+      <c r="K70" t="s">
+        <v>525</v>
+      </c>
+      <c r="L70" t="s">
+        <v>526</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>527</v>
+      </c>
+      <c r="O70" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>528</v>
+      </c>
+      <c r="X70" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>531</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>532</v>
+      </c>
+      <c r="J71" t="s">
+        <v>533</v>
+      </c>
+      <c r="K71" t="s">
+        <v>534</v>
+      </c>
+      <c r="L71" t="s">
+        <v>535</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>536</v>
+      </c>
+      <c r="O71" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>537</v>
+      </c>
+      <c r="X71" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>540</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>541</v>
+      </c>
+      <c r="J72" t="s">
+        <v>542</v>
+      </c>
+      <c r="K72" t="s">
+        <v>543</v>
+      </c>
+      <c r="L72" t="s">
+        <v>544</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>545</v>
+      </c>
+      <c r="O72" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>537</v>
+      </c>
+      <c r="X72" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>548</v>
+      </c>
+      <c r="J73" t="s">
+        <v>549</v>
+      </c>
+      <c r="K73" t="s">
+        <v>550</v>
+      </c>
+      <c r="L73" t="s">
+        <v>551</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>536</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>552</v>
+      </c>
+      <c r="X73" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>555</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>556</v>
+      </c>
+      <c r="J74" t="s">
+        <v>557</v>
+      </c>
+      <c r="K74" t="s">
+        <v>558</v>
+      </c>
+      <c r="L74" t="s">
+        <v>559</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>545</v>
+      </c>
+      <c r="O74" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>552</v>
+      </c>
+      <c r="X74" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>561</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>562</v>
+      </c>
+      <c r="J75" t="s">
+        <v>563</v>
+      </c>
+      <c r="K75" t="s">
+        <v>564</v>
+      </c>
+      <c r="L75" t="s">
+        <v>565</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>536</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>566</v>
+      </c>
+      <c r="X75" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>569</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>570</v>
+      </c>
+      <c r="J76" t="s">
+        <v>571</v>
+      </c>
+      <c r="K76" t="s">
+        <v>572</v>
+      </c>
+      <c r="L76" t="s">
+        <v>573</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>536</v>
+      </c>
+      <c r="O76" t="s">
+        <v>189</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>574</v>
+      </c>
+      <c r="X76" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>577</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>578</v>
+      </c>
+      <c r="J77" t="s">
+        <v>579</v>
+      </c>
+      <c r="K77" t="s">
+        <v>580</v>
+      </c>
+      <c r="L77" t="s">
+        <v>581</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>582</v>
+      </c>
+      <c r="O77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>583</v>
+      </c>
+      <c r="X77" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>586</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>587</v>
+      </c>
+      <c r="J78" t="s">
+        <v>588</v>
+      </c>
+      <c r="K78" t="s">
+        <v>589</v>
+      </c>
+      <c r="L78" t="s">
+        <v>590</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>536</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>591</v>
+      </c>
+      <c r="X78" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>594</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>595</v>
+      </c>
+      <c r="J79" t="s">
+        <v>596</v>
+      </c>
+      <c r="K79" t="s">
+        <v>597</v>
+      </c>
+      <c r="L79" t="s">
+        <v>598</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>582</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>591</v>
+      </c>
+      <c r="X79" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>600</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>601</v>
+      </c>
+      <c r="J80" t="s">
+        <v>602</v>
+      </c>
+      <c r="K80" t="s">
+        <v>603</v>
+      </c>
+      <c r="L80" t="s">
+        <v>604</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>582</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>591</v>
+      </c>
+      <c r="X80" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>606</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>607</v>
+      </c>
+      <c r="J81" t="s">
+        <v>602</v>
+      </c>
+      <c r="K81" t="s">
+        <v>608</v>
+      </c>
+      <c r="L81" t="s">
+        <v>609</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>582</v>
+      </c>
+      <c r="O81" t="s">
+        <v>189</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>591</v>
+      </c>
+      <c r="X81" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>611</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>612</v>
+      </c>
+      <c r="J82" t="s">
+        <v>613</v>
+      </c>
+      <c r="K82" t="s">
+        <v>614</v>
+      </c>
+      <c r="L82" t="s">
+        <v>615</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>582</v>
+      </c>
+      <c r="O82" t="s">
+        <v>65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>616</v>
+      </c>
+      <c r="X82" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>619</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>620</v>
+      </c>
+      <c r="J83" t="s">
+        <v>621</v>
+      </c>
+      <c r="K83" t="s">
+        <v>245</v>
+      </c>
+      <c r="L83" t="s">
+        <v>622</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>623</v>
+      </c>
+      <c r="O83" t="s">
+        <v>123</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>624</v>
+      </c>
+      <c r="X83" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>627</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>628</v>
+      </c>
+      <c r="J84" t="s">
+        <v>629</v>
+      </c>
+      <c r="K84" t="s">
+        <v>630</v>
+      </c>
+      <c r="L84" t="s">
+        <v>631</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>623</v>
+      </c>
+      <c r="O84" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>632</v>
+      </c>
+      <c r="X84" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>635</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>636</v>
+      </c>
+      <c r="J85" t="s">
+        <v>637</v>
+      </c>
+      <c r="K85" t="s">
+        <v>638</v>
+      </c>
+      <c r="L85" t="s">
+        <v>639</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>640</v>
+      </c>
+      <c r="X85" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>643</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>644</v>
+      </c>
+      <c r="J86" t="s">
+        <v>645</v>
+      </c>
+      <c r="K86" t="s">
+        <v>646</v>
+      </c>
+      <c r="L86" t="s">
+        <v>647</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>648</v>
+      </c>
+      <c r="O86" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>649</v>
+      </c>
+      <c r="X86" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>652</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>653</v>
+      </c>
+      <c r="J87" t="s">
+        <v>654</v>
+      </c>
+      <c r="K87" t="s">
+        <v>655</v>
+      </c>
+      <c r="L87" t="s">
+        <v>656</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>657</v>
+      </c>
+      <c r="O87" t="s">
+        <v>123</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>649</v>
+      </c>
+      <c r="X87" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>659</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>660</v>
+      </c>
+      <c r="J88" t="s">
+        <v>661</v>
+      </c>
+      <c r="K88" t="s">
+        <v>662</v>
+      </c>
+      <c r="L88" t="s">
+        <v>663</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>664</v>
+      </c>
+      <c r="O88" t="s">
+        <v>65</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>665</v>
+      </c>
+      <c r="X88" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>668</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>669</v>
+      </c>
+      <c r="J89" t="s">
+        <v>670</v>
+      </c>
+      <c r="K89" t="s">
+        <v>671</v>
+      </c>
+      <c r="L89" t="s">
+        <v>672</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>657</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>665</v>
+      </c>
+      <c r="X89" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>674</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>675</v>
+      </c>
+      <c r="J90" t="s">
+        <v>676</v>
+      </c>
+      <c r="K90" t="s">
+        <v>677</v>
+      </c>
+      <c r="L90" t="s">
+        <v>678</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>664</v>
+      </c>
+      <c r="O90" t="s">
+        <v>123</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>679</v>
+      </c>
+      <c r="X90" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>682</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>683</v>
+      </c>
+      <c r="J91" t="s">
+        <v>684</v>
+      </c>
+      <c r="K91" t="s">
+        <v>685</v>
+      </c>
+      <c r="L91" t="s">
+        <v>686</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>664</v>
+      </c>
+      <c r="O91" t="s">
+        <v>65</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>679</v>
+      </c>
+      <c r="X91" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>688</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>689</v>
+      </c>
+      <c r="J92" t="s">
+        <v>690</v>
+      </c>
+      <c r="K92" t="s">
+        <v>691</v>
+      </c>
+      <c r="L92" t="s">
+        <v>692</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>664</v>
+      </c>
+      <c r="O92" t="s">
+        <v>115</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>679</v>
+      </c>
+      <c r="X92" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>694</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>695</v>
+      </c>
+      <c r="J93" t="s">
+        <v>690</v>
+      </c>
+      <c r="K93" t="s">
+        <v>696</v>
+      </c>
+      <c r="L93" t="s">
+        <v>697</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>664</v>
+      </c>
+      <c r="O93" t="s">
+        <v>65</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>698</v>
+      </c>
+      <c r="X93" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>701</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>702</v>
+      </c>
+      <c r="J94" t="s">
+        <v>703</v>
+      </c>
+      <c r="K94" t="s">
+        <v>704</v>
+      </c>
+      <c r="L94" t="s">
+        <v>705</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>664</v>
+      </c>
+      <c r="O94" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>706</v>
+      </c>
+      <c r="X94" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>709</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>710</v>
+      </c>
+      <c r="J95" t="s">
+        <v>711</v>
+      </c>
+      <c r="K95" t="s">
+        <v>712</v>
+      </c>
+      <c r="L95" t="s">
+        <v>713</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>714</v>
+      </c>
+      <c r="O95" t="s">
+        <v>65</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>679</v>
+      </c>
+      <c r="X95" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>716</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>717</v>
+      </c>
+      <c r="J96" t="s">
+        <v>718</v>
+      </c>
+      <c r="K96" t="s">
+        <v>719</v>
+      </c>
+      <c r="L96" t="s">
+        <v>720</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>714</v>
+      </c>
+      <c r="O96" t="s">
+        <v>65</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>698</v>
+      </c>
+      <c r="X96" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>722</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>723</v>
+      </c>
+      <c r="J97" t="s">
+        <v>718</v>
+      </c>
+      <c r="K97" t="s">
+        <v>724</v>
+      </c>
+      <c r="L97" t="s">
+        <v>725</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>726</v>
+      </c>
+      <c r="O97" t="s">
+        <v>65</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>698</v>
+      </c>
+      <c r="X97" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33265</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>728</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>729</v>
+      </c>
+      <c r="J98" t="s">
+        <v>730</v>
+      </c>
+      <c r="K98" t="s">
+        <v>731</v>
+      </c>
+      <c r="L98" t="s">
+        <v>732</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>714</v>
+      </c>
+      <c r="O98" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>698</v>
+      </c>
+      <c r="X98" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>733</v>
       </c>
     </row>
   </sheetData>
